--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/农村居民消费价格分类指数(上月=100)(-2015).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/农村居民消费价格分类指数(上月=100)(-2015).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -517,326 +517,326 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="D3" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="E3" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
         <v>100.2</v>
       </c>
       <c r="G3" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
         <v>101.9</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>101.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>100.8</v>
       </c>
       <c r="C4" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="D4" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>100.3</v>
       </c>
-      <c r="E4" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100.4</v>
-      </c>
       <c r="I4" t="n">
-        <v>100.4</v>
+        <v>99.5</v>
       </c>
       <c r="J4" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G5" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="C5" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
         <v>100</v>
       </c>
-      <c r="F5" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100.1</v>
-      </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="J5" t="n">
-        <v>101.9</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>100.9</v>
+        <v>99.8</v>
       </c>
       <c r="D6" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="E6" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="G6" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="H6" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="J6" t="n">
-        <v>102.4</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59999999999999</v>
+        <v>99.83844557</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59999999999999</v>
+        <v>100.4107842</v>
       </c>
       <c r="D7" t="n">
-        <v>100.2</v>
+        <v>100.49868127</v>
       </c>
       <c r="E7" t="n">
-        <v>99.8</v>
+        <v>100.04634729</v>
       </c>
       <c r="F7" t="n">
-        <v>100.1</v>
+        <v>100.18231316</v>
       </c>
       <c r="G7" t="n">
-        <v>99.90000000000001</v>
+        <v>100.14758727</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>100.05392025</v>
       </c>
       <c r="I7" t="n">
-        <v>99.2</v>
+        <v>100.07133755</v>
       </c>
       <c r="J7" t="n">
-        <v>99.3</v>
+        <v>101.00046215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="C8" t="n">
-        <v>99.8</v>
+        <v>100.7</v>
       </c>
       <c r="D8" t="n">
         <v>100.3</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F8" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="G8" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="H8" t="n">
         <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>99.40000000000001</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.83844557</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>100.4107842</v>
+        <v>101.3</v>
       </c>
       <c r="D9" t="n">
-        <v>100.49868127</v>
+        <v>100.1</v>
       </c>
       <c r="E9" t="n">
-        <v>100.04634729</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>100.18231316</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>100.14758727</v>
+        <v>100.6</v>
       </c>
       <c r="H9" t="n">
-        <v>100.05392025</v>
+        <v>100.1</v>
       </c>
       <c r="I9" t="n">
-        <v>100.07133755</v>
+        <v>99.2</v>
       </c>
       <c r="J9" t="n">
-        <v>101.00046215</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="D10" t="n">
         <v>100.3</v>
       </c>
       <c r="E10" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F10" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I10" t="n">
         <v>100.2</v>
       </c>
-      <c r="G10" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="J10" t="n">
-        <v>101.9</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="C11" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
       <c r="D11" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="G11" t="n">
-        <v>100.6</v>
+        <v>101.9</v>
       </c>
       <c r="H11" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="I11" t="n">
-        <v>99.2</v>
+        <v>100.7</v>
       </c>
       <c r="J11" t="n">
-        <v>103.8</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>100.2</v>
+        <v>101</v>
       </c>
       <c r="D12" t="n">
         <v>100.3</v>
       </c>
       <c r="E12" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="F12" t="n">
         <v>100.1</v>
@@ -845,276 +845,276 @@
         <v>100.8</v>
       </c>
       <c r="H12" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="I12" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="J12" t="n">
-        <v>100.2</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="C13" t="n">
-        <v>99.5</v>
+        <v>101.2</v>
       </c>
       <c r="D13" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="E13" t="n">
         <v>100</v>
       </c>
       <c r="F13" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="I13" t="n">
         <v>100.1</v>
       </c>
-      <c r="G13" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>100.4</v>
-      </c>
       <c r="J13" t="n">
-        <v>98.5</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.8</v>
+        <v>100.8</v>
       </c>
       <c r="C14" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I14" t="n">
         <v>99.3</v>
       </c>
-      <c r="D14" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>100.4</v>
-      </c>
       <c r="J14" t="n">
-        <v>98.59999999999999</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.37773142</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>99.94500024</v>
+        <v>99.5</v>
       </c>
       <c r="D15" t="n">
-        <v>99.95183082</v>
+        <v>100.4</v>
       </c>
       <c r="E15" t="n">
-        <v>99.69954894</v>
+        <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>99.90215779</v>
+        <v>100.4</v>
       </c>
       <c r="G15" t="n">
-        <v>98.81563447000001</v>
+        <v>100.7</v>
       </c>
       <c r="H15" t="n">
-        <v>100.04010166</v>
+        <v>100.2</v>
       </c>
       <c r="I15" t="n">
-        <v>100.09104742</v>
+        <v>99.3</v>
       </c>
       <c r="J15" t="n">
-        <v>100.7210954</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.4</v>
+        <v>99.75444966000001</v>
       </c>
       <c r="C16" t="n">
-        <v>101.2</v>
+        <v>100.06848314</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3</v>
+        <v>100.24273618</v>
       </c>
       <c r="E16" t="n">
-        <v>100</v>
+        <v>100.00951189</v>
       </c>
       <c r="F16" t="n">
-        <v>100.2</v>
+        <v>100.38000303</v>
       </c>
       <c r="G16" t="n">
-        <v>100.4</v>
+        <v>100.48578765</v>
       </c>
       <c r="H16" t="n">
-        <v>100.5</v>
+        <v>100.22208978</v>
       </c>
       <c r="I16" t="n">
-        <v>100.1</v>
+        <v>100.02654571</v>
       </c>
       <c r="J16" t="n">
-        <v>103.2</v>
+        <v>99.88630395</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.8</v>
+        <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>102.4</v>
+        <v>99.7</v>
       </c>
       <c r="D17" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="E17" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F17" t="n">
         <v>100.2</v>
       </c>
       <c r="G17" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="H17" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="I17" t="n">
-        <v>99.3</v>
+        <v>100.1</v>
       </c>
       <c r="J17" t="n">
-        <v>106.3</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="C18" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="G18" t="n">
-        <v>100.7</v>
+        <v>101.6</v>
       </c>
       <c r="H18" t="n">
         <v>100.2</v>
       </c>
       <c r="I18" t="n">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="J18" t="n">
-        <v>98.5</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.75444966000001</v>
+        <v>100.9</v>
       </c>
       <c r="C19" t="n">
-        <v>100.06848314</v>
+        <v>100.2</v>
       </c>
       <c r="D19" t="n">
-        <v>100.24273618</v>
+        <v>100.2</v>
       </c>
       <c r="E19" t="n">
-        <v>100.00951189</v>
+        <v>100.2</v>
       </c>
       <c r="F19" t="n">
-        <v>100.38000303</v>
+        <v>100.3</v>
       </c>
       <c r="G19" t="n">
-        <v>100.48578765</v>
+        <v>100.9</v>
       </c>
       <c r="H19" t="n">
-        <v>100.22208978</v>
+        <v>100.2</v>
       </c>
       <c r="I19" t="n">
-        <v>100.02654571</v>
+        <v>99.7</v>
       </c>
       <c r="J19" t="n">
-        <v>99.88630395</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B20" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D20" t="n">
         <v>100</v>
       </c>
-      <c r="C20" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>100.1</v>
-      </c>
       <c r="E20" t="n">
-        <v>99.90000000000001</v>
+        <v>101.2</v>
       </c>
       <c r="F20" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="G20" t="n">
-        <v>100.8</v>
+        <v>100.3</v>
       </c>
       <c r="H20" t="n">
         <v>100.2</v>
@@ -1123,1043 +1123,1043 @@
         <v>100.1</v>
       </c>
       <c r="J20" t="n">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C21" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E21" t="n">
         <v>100</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
         <v>100.1</v>
       </c>
-      <c r="E21" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100.2</v>
-      </c>
       <c r="G21" t="n">
-        <v>101.6</v>
+        <v>99.5</v>
       </c>
       <c r="H21" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="I21" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="J21" t="n">
-        <v>99.09999999999999</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.9</v>
+        <v>99.8</v>
       </c>
       <c r="C22" t="n">
-        <v>100.2</v>
+        <v>99.3</v>
       </c>
       <c r="D22" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="E22" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="F22" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>100.9</v>
+        <v>98.7</v>
       </c>
       <c r="H22" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="I22" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="J22" t="n">
-        <v>99.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.90000000000001</v>
+        <v>99.37773142</v>
       </c>
       <c r="C23" t="n">
-        <v>100.1</v>
+        <v>99.94500024</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>99.95183082</v>
       </c>
       <c r="E23" t="n">
-        <v>101.2</v>
+        <v>99.69954894</v>
       </c>
       <c r="F23" t="n">
-        <v>100.3</v>
+        <v>99.90215779</v>
       </c>
       <c r="G23" t="n">
-        <v>100.3</v>
+        <v>98.81563447000001</v>
       </c>
       <c r="H23" t="n">
-        <v>100.2</v>
+        <v>100.04010166</v>
       </c>
       <c r="I23" t="n">
-        <v>100.1</v>
+        <v>100.09104742</v>
       </c>
       <c r="J23" t="n">
-        <v>99.59999999999999</v>
+        <v>100.7210954</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.80474887</v>
+        <v>98.99366148</v>
       </c>
       <c r="C24" t="n">
-        <v>99.88088024</v>
+        <v>100.87472166</v>
       </c>
       <c r="D24" t="n">
-        <v>100.25508881</v>
+        <v>100.22813693</v>
       </c>
       <c r="E24" t="n">
-        <v>100.09310549</v>
+        <v>100.15152444</v>
       </c>
       <c r="F24" t="n">
-        <v>100.02639872</v>
+        <v>99.96361287000001</v>
       </c>
       <c r="G24" t="n">
-        <v>100.46042911</v>
+        <v>99.56093805</v>
       </c>
       <c r="H24" t="n">
-        <v>100.09398561</v>
+        <v>100.12236705</v>
       </c>
       <c r="I24" t="n">
-        <v>100.63628487</v>
+        <v>99.60315946</v>
       </c>
       <c r="J24" t="n">
-        <v>99.18431144</v>
+        <v>103.27762293</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.13104351</v>
+        <v>99.8</v>
       </c>
       <c r="C25" t="n">
-        <v>100.37070155</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>100.36903184</v>
+        <v>100.2</v>
       </c>
       <c r="E25" t="n">
-        <v>99.76795368000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>100.05468723</v>
+        <v>99.8</v>
       </c>
       <c r="G25" t="n">
-        <v>100.73477237</v>
+        <v>99.5</v>
       </c>
       <c r="H25" t="n">
-        <v>100.03837466</v>
+        <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>100.63086858</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>100.54417181</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.13157419</v>
+        <v>100.07457852</v>
       </c>
       <c r="C26" t="n">
-        <v>101.06987555</v>
+        <v>99.76123241000001</v>
       </c>
       <c r="D26" t="n">
-        <v>100.52383124</v>
+        <v>100.06599784</v>
       </c>
       <c r="E26" t="n">
-        <v>99.89367836</v>
+        <v>100.051073</v>
       </c>
       <c r="F26" t="n">
-        <v>100.09077384</v>
+        <v>99.83599156</v>
       </c>
       <c r="G26" t="n">
-        <v>100.81197702</v>
+        <v>99.62536629</v>
       </c>
       <c r="H26" t="n">
-        <v>100.13250182</v>
+        <v>100.0766056</v>
       </c>
       <c r="I26" t="n">
-        <v>100.31451226</v>
+        <v>100.02632271</v>
       </c>
       <c r="J26" t="n">
-        <v>102.62332445</v>
+        <v>99.40084880000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.99366148</v>
+        <v>99.8710688</v>
       </c>
       <c r="C27" t="n">
-        <v>100.87472166</v>
+        <v>99.71228366</v>
       </c>
       <c r="D27" t="n">
-        <v>100.22813693</v>
+        <v>100.10551888</v>
       </c>
       <c r="E27" t="n">
-        <v>100.15152444</v>
+        <v>99.9237675</v>
       </c>
       <c r="F27" t="n">
-        <v>99.96361287000001</v>
+        <v>99.90729893</v>
       </c>
       <c r="G27" t="n">
-        <v>99.56093805</v>
+        <v>99.67414209</v>
       </c>
       <c r="H27" t="n">
-        <v>100.12236705</v>
+        <v>100.00953622</v>
       </c>
       <c r="I27" t="n">
-        <v>99.60315946</v>
+        <v>100.17196194</v>
       </c>
       <c r="J27" t="n">
-        <v>103.27762293</v>
+        <v>99.28804257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.8</v>
+        <v>100.46944458</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>100.06937912</v>
       </c>
       <c r="D28" t="n">
-        <v>100.2</v>
+        <v>100.04892486</v>
       </c>
       <c r="E28" t="n">
-        <v>99.90000000000001</v>
+        <v>100.08871679</v>
       </c>
       <c r="F28" t="n">
-        <v>99.8</v>
+        <v>99.88525794</v>
       </c>
       <c r="G28" t="n">
-        <v>99.5</v>
+        <v>100.14808795</v>
       </c>
       <c r="H28" t="n">
-        <v>100</v>
+        <v>100.09153712</v>
       </c>
       <c r="I28" t="n">
-        <v>98.90000000000001</v>
+        <v>99.56766328</v>
       </c>
       <c r="J28" t="n">
-        <v>100.6</v>
+        <v>100.05456602</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.07457852</v>
+        <v>99.81008319</v>
       </c>
       <c r="C29" t="n">
-        <v>99.76123241000001</v>
+        <v>100.56405512</v>
       </c>
       <c r="D29" t="n">
-        <v>100.06599784</v>
+        <v>100.15890292</v>
       </c>
       <c r="E29" t="n">
-        <v>100.051073</v>
+        <v>100.02745305</v>
       </c>
       <c r="F29" t="n">
-        <v>99.83599156</v>
+        <v>99.91313271999999</v>
       </c>
       <c r="G29" t="n">
-        <v>99.62536629</v>
+        <v>100.48908632</v>
       </c>
       <c r="H29" t="n">
-        <v>100.0766056</v>
+        <v>100.29745756</v>
       </c>
       <c r="I29" t="n">
-        <v>100.02632271</v>
+        <v>99.46251909999999</v>
       </c>
       <c r="J29" t="n">
-        <v>99.40084880000001</v>
+        <v>101.62364191</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.8710688</v>
+        <v>100.13302407</v>
       </c>
       <c r="C30" t="n">
-        <v>99.71228366</v>
+        <v>100.55881465</v>
       </c>
       <c r="D30" t="n">
-        <v>100.10551888</v>
+        <v>100.20548898</v>
       </c>
       <c r="E30" t="n">
-        <v>99.9237675</v>
+        <v>100.67236605</v>
       </c>
       <c r="F30" t="n">
-        <v>99.90729893</v>
+        <v>99.96616837000001</v>
       </c>
       <c r="G30" t="n">
-        <v>99.67414209</v>
+        <v>100.5669226</v>
       </c>
       <c r="H30" t="n">
-        <v>100.00953622</v>
+        <v>100.2304767</v>
       </c>
       <c r="I30" t="n">
-        <v>100.17196194</v>
+        <v>100.19790948</v>
       </c>
       <c r="J30" t="n">
-        <v>99.28804257</v>
+        <v>100.9996133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.46944458</v>
+        <v>99.80474887</v>
       </c>
       <c r="C31" t="n">
-        <v>100.06937912</v>
+        <v>99.88088024</v>
       </c>
       <c r="D31" t="n">
-        <v>100.04892486</v>
+        <v>100.25508881</v>
       </c>
       <c r="E31" t="n">
-        <v>100.08871679</v>
+        <v>100.09310549</v>
       </c>
       <c r="F31" t="n">
-        <v>99.88525794</v>
+        <v>100.02639872</v>
       </c>
       <c r="G31" t="n">
-        <v>100.14808795</v>
+        <v>100.46042911</v>
       </c>
       <c r="H31" t="n">
-        <v>100.09153712</v>
+        <v>100.09398561</v>
       </c>
       <c r="I31" t="n">
-        <v>99.56766328</v>
+        <v>100.63628487</v>
       </c>
       <c r="J31" t="n">
-        <v>100.05456602</v>
+        <v>99.18431144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.81008319</v>
+        <v>100.13104351</v>
       </c>
       <c r="C32" t="n">
-        <v>100.56405512</v>
+        <v>100.37070155</v>
       </c>
       <c r="D32" t="n">
-        <v>100.15890292</v>
+        <v>100.36903184</v>
       </c>
       <c r="E32" t="n">
-        <v>100.02745305</v>
+        <v>99.76795368000001</v>
       </c>
       <c r="F32" t="n">
-        <v>99.91313271999999</v>
+        <v>100.05468723</v>
       </c>
       <c r="G32" t="n">
-        <v>100.48908632</v>
+        <v>100.73477237</v>
       </c>
       <c r="H32" t="n">
-        <v>100.29745756</v>
+        <v>100.03837466</v>
       </c>
       <c r="I32" t="n">
-        <v>99.46251909999999</v>
+        <v>100.63086858</v>
       </c>
       <c r="J32" t="n">
-        <v>101.62364191</v>
+        <v>100.54417181</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.13302407</v>
+        <v>100.13157419</v>
       </c>
       <c r="C33" t="n">
-        <v>100.55881465</v>
+        <v>101.06987555</v>
       </c>
       <c r="D33" t="n">
-        <v>100.20548898</v>
+        <v>100.52383124</v>
       </c>
       <c r="E33" t="n">
-        <v>100.67236605</v>
+        <v>99.89367836</v>
       </c>
       <c r="F33" t="n">
-        <v>99.96616837000001</v>
+        <v>100.09077384</v>
       </c>
       <c r="G33" t="n">
-        <v>100.5669226</v>
+        <v>100.81197702</v>
       </c>
       <c r="H33" t="n">
-        <v>100.2304767</v>
+        <v>100.13250182</v>
       </c>
       <c r="I33" t="n">
-        <v>100.19790948</v>
+        <v>100.31451226</v>
       </c>
       <c r="J33" t="n">
-        <v>100.9996133</v>
+        <v>102.62332445</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.00773321</v>
+        <v>100.00049266</v>
       </c>
       <c r="C34" t="n">
-        <v>100.64730589</v>
+        <v>100.61756569</v>
       </c>
       <c r="D34" t="n">
-        <v>100.45510747</v>
+        <v>100.30765148</v>
       </c>
       <c r="E34" t="n">
-        <v>100.09193185</v>
+        <v>100.04189936</v>
       </c>
       <c r="F34" t="n">
-        <v>100.12044384</v>
+        <v>100.12096787</v>
       </c>
       <c r="G34" t="n">
-        <v>101.18938814</v>
+        <v>100.54029534</v>
       </c>
       <c r="H34" t="n">
-        <v>100.15516696</v>
+        <v>100.24688171</v>
       </c>
       <c r="I34" t="n">
-        <v>100.99173894</v>
+        <v>99.72062837</v>
       </c>
       <c r="J34" t="n">
-        <v>100.90581688</v>
+        <v>101.53710584</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.09450033</v>
+        <v>100.67008825</v>
       </c>
       <c r="C35" t="n">
-        <v>101.28171239</v>
+        <v>101.0657415</v>
       </c>
       <c r="D35" t="n">
-        <v>100.64305404</v>
+        <v>100.35929033</v>
       </c>
       <c r="E35" t="n">
-        <v>99.66679886</v>
+        <v>100.4462793</v>
       </c>
       <c r="F35" t="n">
-        <v>100.29013522</v>
+        <v>100.05347191</v>
       </c>
       <c r="G35" t="n">
-        <v>102.18921589</v>
+        <v>100.15376602</v>
       </c>
       <c r="H35" t="n">
-        <v>100.18078917</v>
+        <v>100.14736856</v>
       </c>
       <c r="I35" t="n">
-        <v>101.40248198</v>
+        <v>98.99188881000001</v>
       </c>
       <c r="J35" t="n">
-        <v>102.23563254</v>
+        <v>102.91961772</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.10674269</v>
+        <v>99.45204115999999</v>
       </c>
       <c r="C36" t="n">
-        <v>100.55453203</v>
+        <v>99.38331635</v>
       </c>
       <c r="D36" t="n">
-        <v>100.37450446</v>
+        <v>100.01074088</v>
       </c>
       <c r="E36" t="n">
-        <v>99.82837504</v>
+        <v>99.87136520999999</v>
       </c>
       <c r="F36" t="n">
-        <v>100.10087091</v>
+        <v>99.87132776999999</v>
       </c>
       <c r="G36" t="n">
-        <v>101.12990541</v>
+        <v>99.95924573000001</v>
       </c>
       <c r="H36" t="n">
-        <v>100.2828382</v>
+        <v>100.08284511</v>
       </c>
       <c r="I36" t="n">
-        <v>100.71949279</v>
+        <v>99.48214595</v>
       </c>
       <c r="J36" t="n">
-        <v>100.78705145</v>
+        <v>98.52113597</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.00049266</v>
+        <v>100.00074554</v>
       </c>
       <c r="C37" t="n">
-        <v>100.61756569</v>
+        <v>100.16115122</v>
       </c>
       <c r="D37" t="n">
-        <v>100.30765148</v>
+        <v>100.32618832</v>
       </c>
       <c r="E37" t="n">
-        <v>100.04189936</v>
+        <v>100.07935392</v>
       </c>
       <c r="F37" t="n">
-        <v>100.12096787</v>
+        <v>100.02879765</v>
       </c>
       <c r="G37" t="n">
-        <v>100.54029534</v>
+        <v>100.71549323</v>
       </c>
       <c r="H37" t="n">
-        <v>100.24688171</v>
+        <v>99.99035644999999</v>
       </c>
       <c r="I37" t="n">
-        <v>99.72062837</v>
+        <v>100.12325137</v>
       </c>
       <c r="J37" t="n">
-        <v>101.53710584</v>
+        <v>99.97449340999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.67008825</v>
+        <v>100.05304183</v>
       </c>
       <c r="C38" t="n">
-        <v>101.0657415</v>
+        <v>99.9657375</v>
       </c>
       <c r="D38" t="n">
-        <v>100.35929033</v>
+        <v>100.45421262</v>
       </c>
       <c r="E38" t="n">
-        <v>100.4462793</v>
+        <v>99.99510151</v>
       </c>
       <c r="F38" t="n">
-        <v>100.05347191</v>
+        <v>100.05798971</v>
       </c>
       <c r="G38" t="n">
-        <v>100.15376602</v>
+        <v>100.21255159</v>
       </c>
       <c r="H38" t="n">
-        <v>100.14736856</v>
+        <v>100.08616152</v>
       </c>
       <c r="I38" t="n">
-        <v>98.99188881000001</v>
+        <v>100.17046493</v>
       </c>
       <c r="J38" t="n">
-        <v>102.91961772</v>
+        <v>99.57816712</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.45204115999999</v>
+        <v>99.7166588</v>
       </c>
       <c r="C39" t="n">
-        <v>99.38331635</v>
+        <v>99.47999779</v>
       </c>
       <c r="D39" t="n">
-        <v>100.01074088</v>
+        <v>100.23493263</v>
       </c>
       <c r="E39" t="n">
-        <v>99.87136520999999</v>
+        <v>99.94539688</v>
       </c>
       <c r="F39" t="n">
-        <v>99.87132776999999</v>
+        <v>100.07089607</v>
       </c>
       <c r="G39" t="n">
-        <v>99.95924573000001</v>
+        <v>99.92005191</v>
       </c>
       <c r="H39" t="n">
-        <v>100.08284511</v>
+        <v>100.13123031</v>
       </c>
       <c r="I39" t="n">
-        <v>99.48214595</v>
+        <v>100.00229122</v>
       </c>
       <c r="J39" t="n">
-        <v>98.52113597</v>
+        <v>98.46712592999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.00074554</v>
+        <v>99.97803616</v>
       </c>
       <c r="C40" t="n">
-        <v>100.16115122</v>
+        <v>100.33780454</v>
       </c>
       <c r="D40" t="n">
-        <v>100.32618832</v>
+        <v>100.13485682</v>
       </c>
       <c r="E40" t="n">
-        <v>100.07935392</v>
+        <v>100.26247687</v>
       </c>
       <c r="F40" t="n">
-        <v>100.02879765</v>
+        <v>99.94603033999999</v>
       </c>
       <c r="G40" t="n">
-        <v>100.71549323</v>
+        <v>99.93879196</v>
       </c>
       <c r="H40" t="n">
-        <v>99.99035644999999</v>
+        <v>100.0043617</v>
       </c>
       <c r="I40" t="n">
-        <v>100.12325137</v>
+        <v>99.4139454</v>
       </c>
       <c r="J40" t="n">
-        <v>99.97449340999999</v>
+        <v>101.097422</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.05304183</v>
+        <v>99.99569446</v>
       </c>
       <c r="C41" t="n">
-        <v>99.9657375</v>
+        <v>100.75923934</v>
       </c>
       <c r="D41" t="n">
-        <v>100.45421262</v>
+        <v>100.10415677</v>
       </c>
       <c r="E41" t="n">
-        <v>99.99510151</v>
+        <v>100.05878316</v>
       </c>
       <c r="F41" t="n">
-        <v>100.05798971</v>
+        <v>100.04507991</v>
       </c>
       <c r="G41" t="n">
-        <v>100.21255159</v>
+        <v>100.21614543</v>
       </c>
       <c r="H41" t="n">
-        <v>100.08616152</v>
+        <v>100.13251717</v>
       </c>
       <c r="I41" t="n">
-        <v>100.17046493</v>
+        <v>99.11930048000001</v>
       </c>
       <c r="J41" t="n">
-        <v>99.57816712</v>
+        <v>102.34838597</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.7166588</v>
+        <v>100.03059938</v>
       </c>
       <c r="C42" t="n">
-        <v>99.47999779</v>
+        <v>100.72127945</v>
       </c>
       <c r="D42" t="n">
-        <v>100.23493263</v>
+        <v>100.26082124</v>
       </c>
       <c r="E42" t="n">
-        <v>99.94539688</v>
+        <v>100.68182045</v>
       </c>
       <c r="F42" t="n">
-        <v>100.07089607</v>
+        <v>100.01428887</v>
       </c>
       <c r="G42" t="n">
-        <v>99.92005191</v>
+        <v>100.58644566</v>
       </c>
       <c r="H42" t="n">
-        <v>100.13123031</v>
+        <v>100.13539868</v>
       </c>
       <c r="I42" t="n">
-        <v>100.00229122</v>
+        <v>100.5411595</v>
       </c>
       <c r="J42" t="n">
-        <v>98.46712592999999</v>
+        <v>101.3991896</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.97803616</v>
+        <v>100.00773321</v>
       </c>
       <c r="C43" t="n">
-        <v>100.33780454</v>
+        <v>100.64730589</v>
       </c>
       <c r="D43" t="n">
-        <v>100.13485682</v>
+        <v>100.45510747</v>
       </c>
       <c r="E43" t="n">
-        <v>100.26247687</v>
+        <v>100.09193185</v>
       </c>
       <c r="F43" t="n">
-        <v>99.94603033999999</v>
+        <v>100.12044384</v>
       </c>
       <c r="G43" t="n">
-        <v>99.93879196</v>
+        <v>101.18938814</v>
       </c>
       <c r="H43" t="n">
-        <v>100.0043617</v>
+        <v>100.15516696</v>
       </c>
       <c r="I43" t="n">
-        <v>99.4139454</v>
+        <v>100.99173894</v>
       </c>
       <c r="J43" t="n">
-        <v>101.097422</v>
+        <v>100.90581688</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.99569446</v>
+        <v>100.09450033</v>
       </c>
       <c r="C44" t="n">
-        <v>100.75923934</v>
+        <v>101.28171239</v>
       </c>
       <c r="D44" t="n">
-        <v>100.10415677</v>
+        <v>100.64305404</v>
       </c>
       <c r="E44" t="n">
-        <v>100.05878316</v>
+        <v>99.66679886</v>
       </c>
       <c r="F44" t="n">
-        <v>100.04507991</v>
+        <v>100.29013522</v>
       </c>
       <c r="G44" t="n">
-        <v>100.21614543</v>
+        <v>102.18921589</v>
       </c>
       <c r="H44" t="n">
-        <v>100.13251717</v>
+        <v>100.18078917</v>
       </c>
       <c r="I44" t="n">
-        <v>99.11930048000001</v>
+        <v>101.40248198</v>
       </c>
       <c r="J44" t="n">
-        <v>102.34838597</v>
+        <v>102.23563254</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.03059938</v>
+        <v>100.10674269</v>
       </c>
       <c r="C45" t="n">
-        <v>100.72127945</v>
+        <v>100.55453203</v>
       </c>
       <c r="D45" t="n">
-        <v>100.26082124</v>
+        <v>100.37450446</v>
       </c>
       <c r="E45" t="n">
-        <v>100.68182045</v>
+        <v>99.82837504</v>
       </c>
       <c r="F45" t="n">
-        <v>100.01428887</v>
+        <v>100.10087091</v>
       </c>
       <c r="G45" t="n">
-        <v>100.58644566</v>
+        <v>101.12990541</v>
       </c>
       <c r="H45" t="n">
-        <v>100.13539868</v>
+        <v>100.2828382</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5411595</v>
+        <v>100.71949279</v>
       </c>
       <c r="J45" t="n">
-        <v>101.3991896</v>
+        <v>100.78705145</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.71326326000001</v>
+        <v>100.44670805</v>
       </c>
       <c r="C46" t="n">
-        <v>100.04502712</v>
+        <v>101.07115198</v>
       </c>
       <c r="D46" t="n">
-        <v>100.03024261</v>
+        <v>100.36229512</v>
       </c>
       <c r="E46" t="n">
-        <v>100.10526984</v>
+        <v>100.16088743</v>
       </c>
       <c r="F46" t="n">
-        <v>100.1560461</v>
+        <v>100.22916191</v>
       </c>
       <c r="G46" t="n">
-        <v>100.24975767</v>
+        <v>100.56552625</v>
       </c>
       <c r="H46" t="n">
-        <v>100.34795329</v>
+        <v>100.39419689</v>
       </c>
       <c r="I46" t="n">
-        <v>101.50148039</v>
+        <v>100.04391342</v>
       </c>
       <c r="J46" t="n">
-        <v>99.62899265</v>
+        <v>102.60371569</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>99.92150085999999</v>
+        <v>100.53971801</v>
       </c>
       <c r="C47" t="n">
-        <v>99.79866724</v>
+        <v>101.30151239</v>
       </c>
       <c r="D47" t="n">
-        <v>100.27065809</v>
+        <v>100.26173127</v>
       </c>
       <c r="E47" t="n">
-        <v>99.8110744</v>
+        <v>100.1399725</v>
       </c>
       <c r="F47" t="n">
-        <v>100.19350791</v>
+        <v>100.11476931</v>
       </c>
       <c r="G47" t="n">
-        <v>100.17302682</v>
+        <v>100.21999656</v>
       </c>
       <c r="H47" t="n">
-        <v>100.20224802</v>
+        <v>100.18368992</v>
       </c>
       <c r="I47" t="n">
-        <v>101.4999346</v>
+        <v>99.08087469</v>
       </c>
       <c r="J47" t="n">
-        <v>98.89566067</v>
+        <v>103.78629523</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.90945567999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>100.25748797</v>
+        <v>99.7</v>
       </c>
       <c r="D48" t="n">
-        <v>99.97002673</v>
+        <v>100.2</v>
       </c>
       <c r="E48" t="n">
-        <v>99.77119302</v>
+        <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>99.9338722</v>
+        <v>100.1</v>
       </c>
       <c r="G48" t="n">
-        <v>99.90055458</v>
+        <v>100.2</v>
       </c>
       <c r="H48" t="n">
-        <v>100.3684703</v>
+        <v>100.3</v>
       </c>
       <c r="I48" t="n">
-        <v>101.16811021</v>
+        <v>99.7</v>
       </c>
       <c r="J48" t="n">
-        <v>100.63659644</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.44670805</v>
+        <v>100.4</v>
       </c>
       <c r="C49" t="n">
-        <v>101.07115198</v>
+        <v>100.1</v>
       </c>
       <c r="D49" t="n">
-        <v>100.36229512</v>
+        <v>100.2</v>
       </c>
       <c r="E49" t="n">
-        <v>100.16088743</v>
+        <v>100.1</v>
       </c>
       <c r="F49" t="n">
-        <v>100.22916191</v>
+        <v>100.2</v>
       </c>
       <c r="G49" t="n">
-        <v>100.56552625</v>
+        <v>100.5</v>
       </c>
       <c r="H49" t="n">
-        <v>100.39419689</v>
+        <v>100.2</v>
       </c>
       <c r="I49" t="n">
-        <v>100.04391342</v>
+        <v>100.5</v>
       </c>
       <c r="J49" t="n">
-        <v>102.60371569</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.53971801</v>
+        <v>100.2</v>
       </c>
       <c r="C50" t="n">
-        <v>101.30151239</v>
+        <v>100.1</v>
       </c>
       <c r="D50" t="n">
-        <v>100.26173127</v>
+        <v>100.3</v>
       </c>
       <c r="E50" t="n">
-        <v>100.1399725</v>
+        <v>100</v>
       </c>
       <c r="F50" t="n">
-        <v>100.11476931</v>
+        <v>100.2</v>
       </c>
       <c r="G50" t="n">
-        <v>100.21999656</v>
+        <v>100.2</v>
       </c>
       <c r="H50" t="n">
-        <v>100.18368992</v>
+        <v>100.3</v>
       </c>
       <c r="I50" t="n">
-        <v>99.08087469</v>
+        <v>100.5</v>
       </c>
       <c r="J50" t="n">
-        <v>103.78629523</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="D51" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="E51" t="n">
         <v>100</v>
@@ -2168,1852 +2168,1852 @@
         <v>100.1</v>
       </c>
       <c r="G51" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="I51" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="J51" t="n">
-        <v>98.90000000000001</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.4</v>
+        <v>100.0291989</v>
       </c>
       <c r="C52" t="n">
-        <v>100.1</v>
+        <v>100.46032925</v>
       </c>
       <c r="D52" t="n">
-        <v>100.2</v>
+        <v>100.38188736</v>
       </c>
       <c r="E52" t="n">
-        <v>100.1</v>
+        <v>100.21264901</v>
       </c>
       <c r="F52" t="n">
-        <v>100.2</v>
+        <v>100.08826995</v>
       </c>
       <c r="G52" t="n">
-        <v>100.5</v>
+        <v>100.03557529</v>
       </c>
       <c r="H52" t="n">
-        <v>100.2</v>
+        <v>100.17387301</v>
       </c>
       <c r="I52" t="n">
-        <v>100.5</v>
+        <v>99.63125273999999</v>
       </c>
       <c r="J52" t="n">
-        <v>99.5</v>
+        <v>101.24780921</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100.2</v>
+        <v>100.05058339</v>
       </c>
       <c r="C53" t="n">
-        <v>100.1</v>
+        <v>100.30529452</v>
       </c>
       <c r="D53" t="n">
-        <v>100.3</v>
+        <v>100.38544131</v>
       </c>
       <c r="E53" t="n">
-        <v>100</v>
+        <v>100.10867606</v>
       </c>
       <c r="F53" t="n">
-        <v>100.2</v>
+        <v>100.15949788</v>
       </c>
       <c r="G53" t="n">
-        <v>100.2</v>
+        <v>100.14746317</v>
       </c>
       <c r="H53" t="n">
-        <v>100.3</v>
+        <v>100.2232318</v>
       </c>
       <c r="I53" t="n">
-        <v>100.5</v>
+        <v>99.73125218</v>
       </c>
       <c r="J53" t="n">
-        <v>99.8</v>
+        <v>100.68749919</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.90000000000001</v>
+        <v>100.03266505</v>
       </c>
       <c r="C54" t="n">
-        <v>100.4</v>
+        <v>100.55315935</v>
       </c>
       <c r="D54" t="n">
-        <v>100.4</v>
+        <v>100.27494333</v>
       </c>
       <c r="E54" t="n">
-        <v>100</v>
+        <v>99.94662231</v>
       </c>
       <c r="F54" t="n">
-        <v>100.1</v>
+        <v>100.05957951</v>
       </c>
       <c r="G54" t="n">
-        <v>99.90000000000001</v>
+        <v>100.20141536</v>
       </c>
       <c r="H54" t="n">
-        <v>100.1</v>
+        <v>100.49174474</v>
       </c>
       <c r="I54" t="n">
-        <v>100</v>
+        <v>100.67609222</v>
       </c>
       <c r="J54" t="n">
-        <v>101.2</v>
+        <v>101.25636454</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>100.0291989</v>
+        <v>99.71326326000001</v>
       </c>
       <c r="C55" t="n">
-        <v>100.46032925</v>
+        <v>100.04502712</v>
       </c>
       <c r="D55" t="n">
-        <v>100.38188736</v>
+        <v>100.03024261</v>
       </c>
       <c r="E55" t="n">
-        <v>100.21264901</v>
+        <v>100.10526984</v>
       </c>
       <c r="F55" t="n">
-        <v>100.08826995</v>
+        <v>100.1560461</v>
       </c>
       <c r="G55" t="n">
-        <v>100.03557529</v>
+        <v>100.24975767</v>
       </c>
       <c r="H55" t="n">
-        <v>100.17387301</v>
+        <v>100.34795329</v>
       </c>
       <c r="I55" t="n">
-        <v>99.63125273999999</v>
+        <v>101.50148039</v>
       </c>
       <c r="J55" t="n">
-        <v>101.24780921</v>
+        <v>99.62899265</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>100.05058339</v>
+        <v>99.92150085999999</v>
       </c>
       <c r="C56" t="n">
-        <v>100.30529452</v>
+        <v>99.79866724</v>
       </c>
       <c r="D56" t="n">
-        <v>100.38544131</v>
+        <v>100.27065809</v>
       </c>
       <c r="E56" t="n">
-        <v>100.10867606</v>
+        <v>99.8110744</v>
       </c>
       <c r="F56" t="n">
-        <v>100.15949788</v>
+        <v>100.19350791</v>
       </c>
       <c r="G56" t="n">
-        <v>100.14746317</v>
+        <v>100.17302682</v>
       </c>
       <c r="H56" t="n">
-        <v>100.2232318</v>
+        <v>100.20224802</v>
       </c>
       <c r="I56" t="n">
-        <v>99.73125218</v>
+        <v>101.4999346</v>
       </c>
       <c r="J56" t="n">
-        <v>100.68749919</v>
+        <v>98.89566067</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>100.03266505</v>
+        <v>99.90945567999999</v>
       </c>
       <c r="C57" t="n">
-        <v>100.55315935</v>
+        <v>100.25748797</v>
       </c>
       <c r="D57" t="n">
-        <v>100.27494333</v>
+        <v>99.97002673</v>
       </c>
       <c r="E57" t="n">
-        <v>99.94662231</v>
+        <v>99.77119302</v>
       </c>
       <c r="F57" t="n">
-        <v>100.05957951</v>
+        <v>99.9338722</v>
       </c>
       <c r="G57" t="n">
-        <v>100.20141536</v>
+        <v>99.90055458</v>
       </c>
       <c r="H57" t="n">
-        <v>100.49174474</v>
+        <v>100.3684703</v>
       </c>
       <c r="I57" t="n">
-        <v>100.67609222</v>
+        <v>101.16811021</v>
       </c>
       <c r="J57" t="n">
-        <v>101.25636454</v>
+        <v>100.63659644</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>100.09366244</v>
+        <v>100.48290133</v>
       </c>
       <c r="C58" t="n">
-        <v>99.89216673999999</v>
+        <v>101.52443089</v>
       </c>
       <c r="D58" t="n">
-        <v>100.27233307</v>
+        <v>100.22271202</v>
       </c>
       <c r="E58" t="n">
-        <v>100.06859969</v>
+        <v>100.51335011</v>
       </c>
       <c r="F58" t="n">
-        <v>100.01270732</v>
+        <v>100.29737835</v>
       </c>
       <c r="G58" t="n">
-        <v>100.19139146</v>
+        <v>100.33269494</v>
       </c>
       <c r="H58" t="n">
-        <v>100.08630794</v>
+        <v>100.19668239</v>
       </c>
       <c r="I58" t="n">
-        <v>100.87848987</v>
+        <v>99.71666677</v>
       </c>
       <c r="J58" t="n">
-        <v>99.21767719</v>
+        <v>104.03737032</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99.77497095</v>
+        <v>100.13743019</v>
       </c>
       <c r="C59" t="n">
-        <v>100.20119361</v>
+        <v>99.92811057999999</v>
       </c>
       <c r="D59" t="n">
-        <v>100.16896916</v>
+        <v>100.11557237</v>
       </c>
       <c r="E59" t="n">
-        <v>99.74775984</v>
+        <v>99.93875308</v>
       </c>
       <c r="F59" t="n">
-        <v>100.19601822</v>
+        <v>100.2045983</v>
       </c>
       <c r="G59" t="n">
-        <v>100.28058185</v>
+        <v>100.2188631</v>
       </c>
       <c r="H59" t="n">
-        <v>100.02437951</v>
+        <v>100.24732409</v>
       </c>
       <c r="I59" t="n">
-        <v>100.88705353</v>
+        <v>99.34253398</v>
       </c>
       <c r="J59" t="n">
-        <v>100.30182125</v>
+        <v>99.70122177</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>99.88370702</v>
+        <v>100.18356766</v>
       </c>
       <c r="C60" t="n">
-        <v>100.86984282</v>
+        <v>100.07299992</v>
       </c>
       <c r="D60" t="n">
-        <v>100.06071399</v>
+        <v>100.12186378</v>
       </c>
       <c r="E60" t="n">
-        <v>99.84657089</v>
+        <v>100.07345968</v>
       </c>
       <c r="F60" t="n">
-        <v>100.0356888</v>
+        <v>100.0580435</v>
       </c>
       <c r="G60" t="n">
-        <v>100.21171586</v>
+        <v>100.36618603</v>
       </c>
       <c r="H60" t="n">
-        <v>100.3262849</v>
+        <v>100.15996088</v>
       </c>
       <c r="I60" t="n">
-        <v>100.39527327</v>
+        <v>100.0044692</v>
       </c>
       <c r="J60" t="n">
-        <v>102.43369597</v>
+        <v>99.86801935</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>100.48290133</v>
+        <v>100.40089115</v>
       </c>
       <c r="C61" t="n">
-        <v>101.52443089</v>
+        <v>99.83697050000001</v>
       </c>
       <c r="D61" t="n">
-        <v>100.22271202</v>
+        <v>100.08257698</v>
       </c>
       <c r="E61" t="n">
-        <v>100.51335011</v>
+        <v>100.20520956</v>
       </c>
       <c r="F61" t="n">
-        <v>100.29737835</v>
+        <v>100.07272694</v>
       </c>
       <c r="G61" t="n">
-        <v>100.33269494</v>
+        <v>100.22576094</v>
       </c>
       <c r="H61" t="n">
-        <v>100.19668239</v>
+        <v>100.15152229</v>
       </c>
       <c r="I61" t="n">
-        <v>99.71666677</v>
+        <v>100.46024934</v>
       </c>
       <c r="J61" t="n">
-        <v>104.03737032</v>
+        <v>99.04269021</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.13743019</v>
+        <v>99.78903034</v>
       </c>
       <c r="C62" t="n">
-        <v>99.92811057999999</v>
+        <v>99.68459012</v>
       </c>
       <c r="D62" t="n">
-        <v>100.11557237</v>
+        <v>100.05981237</v>
       </c>
       <c r="E62" t="n">
-        <v>99.93875308</v>
+        <v>100.00540133</v>
       </c>
       <c r="F62" t="n">
-        <v>100.2045983</v>
+        <v>100.09961789</v>
       </c>
       <c r="G62" t="n">
-        <v>100.2188631</v>
+        <v>99.86533815999999</v>
       </c>
       <c r="H62" t="n">
-        <v>100.24732409</v>
+        <v>100.21433971</v>
       </c>
       <c r="I62" t="n">
-        <v>99.34253398</v>
+        <v>100.29811346</v>
       </c>
       <c r="J62" t="n">
-        <v>99.70122177</v>
+        <v>99.07031379</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.18356766</v>
+        <v>99.51453739999999</v>
       </c>
       <c r="C63" t="n">
-        <v>100.07299992</v>
+        <v>99.52858006</v>
       </c>
       <c r="D63" t="n">
-        <v>100.12186378</v>
+        <v>100.17688477</v>
       </c>
       <c r="E63" t="n">
-        <v>100.07345968</v>
+        <v>100.07679627</v>
       </c>
       <c r="F63" t="n">
-        <v>100.0580435</v>
+        <v>100.1561298</v>
       </c>
       <c r="G63" t="n">
-        <v>100.36618603</v>
+        <v>99.82941261000001</v>
       </c>
       <c r="H63" t="n">
-        <v>100.15996088</v>
+        <v>100.15408649</v>
       </c>
       <c r="I63" t="n">
-        <v>100.0044692</v>
+        <v>100.21437163</v>
       </c>
       <c r="J63" t="n">
-        <v>99.86801935</v>
+        <v>98.66460425</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>100.40089115</v>
+        <v>99.60678724</v>
       </c>
       <c r="C64" t="n">
-        <v>99.83697050000001</v>
+        <v>99.95112973000001</v>
       </c>
       <c r="D64" t="n">
-        <v>100.08257698</v>
+        <v>100.18532237</v>
       </c>
       <c r="E64" t="n">
-        <v>100.20520956</v>
+        <v>100.39555608</v>
       </c>
       <c r="F64" t="n">
-        <v>100.07272694</v>
+        <v>100.101066</v>
       </c>
       <c r="G64" t="n">
-        <v>100.22576094</v>
+        <v>100.16740138</v>
       </c>
       <c r="H64" t="n">
-        <v>100.15152229</v>
+        <v>100.12362981</v>
       </c>
       <c r="I64" t="n">
-        <v>100.46024934</v>
+        <v>99.66445897</v>
       </c>
       <c r="J64" t="n">
-        <v>99.04269021</v>
+        <v>99.74860381000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>99.78903034</v>
+        <v>100.18657314</v>
       </c>
       <c r="C65" t="n">
-        <v>99.68459012</v>
+        <v>100.61699263</v>
       </c>
       <c r="D65" t="n">
-        <v>100.05981237</v>
+        <v>100.06294824</v>
       </c>
       <c r="E65" t="n">
-        <v>100.00540133</v>
+        <v>100.02200002</v>
       </c>
       <c r="F65" t="n">
-        <v>100.09961789</v>
+        <v>100.02036104</v>
       </c>
       <c r="G65" t="n">
-        <v>99.86533815999999</v>
+        <v>100.26839223</v>
       </c>
       <c r="H65" t="n">
-        <v>100.21433971</v>
+        <v>100.24412446</v>
       </c>
       <c r="I65" t="n">
-        <v>100.29811346</v>
+        <v>99.63687886</v>
       </c>
       <c r="J65" t="n">
-        <v>99.07031379</v>
+        <v>101.68852228</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>99.51453739999999</v>
+        <v>100.54001809</v>
       </c>
       <c r="C66" t="n">
-        <v>99.52858006</v>
+        <v>100.42925703</v>
       </c>
       <c r="D66" t="n">
-        <v>100.17688477</v>
+        <v>100.24134888</v>
       </c>
       <c r="E66" t="n">
-        <v>100.07679627</v>
+        <v>100.55593756</v>
       </c>
       <c r="F66" t="n">
-        <v>100.1561298</v>
+        <v>100.05608685</v>
       </c>
       <c r="G66" t="n">
-        <v>99.82941261000001</v>
+        <v>100.30945618</v>
       </c>
       <c r="H66" t="n">
-        <v>100.15408649</v>
+        <v>100.08464413</v>
       </c>
       <c r="I66" t="n">
-        <v>100.21437163</v>
+        <v>100.56610328</v>
       </c>
       <c r="J66" t="n">
-        <v>98.66460425</v>
+        <v>100.54634432</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>99.60678724</v>
+        <v>100.09366244</v>
       </c>
       <c r="C67" t="n">
-        <v>99.95112973000001</v>
+        <v>99.89216673999999</v>
       </c>
       <c r="D67" t="n">
-        <v>100.18532237</v>
+        <v>100.27233307</v>
       </c>
       <c r="E67" t="n">
-        <v>100.39555608</v>
+        <v>100.06859969</v>
       </c>
       <c r="F67" t="n">
-        <v>100.101066</v>
+        <v>100.01270732</v>
       </c>
       <c r="G67" t="n">
-        <v>100.16740138</v>
+        <v>100.19139146</v>
       </c>
       <c r="H67" t="n">
-        <v>100.12362981</v>
+        <v>100.08630794</v>
       </c>
       <c r="I67" t="n">
-        <v>99.66445897</v>
+        <v>100.87848987</v>
       </c>
       <c r="J67" t="n">
-        <v>99.74860381000001</v>
+        <v>99.21767719</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100.18657314</v>
+        <v>99.77497095</v>
       </c>
       <c r="C68" t="n">
-        <v>100.61699263</v>
+        <v>100.20119361</v>
       </c>
       <c r="D68" t="n">
-        <v>100.06294824</v>
+        <v>100.16896916</v>
       </c>
       <c r="E68" t="n">
-        <v>100.02200002</v>
+        <v>99.74775984</v>
       </c>
       <c r="F68" t="n">
-        <v>100.02036104</v>
+        <v>100.19601822</v>
       </c>
       <c r="G68" t="n">
-        <v>100.26839223</v>
+        <v>100.28058185</v>
       </c>
       <c r="H68" t="n">
-        <v>100.24412446</v>
+        <v>100.02437951</v>
       </c>
       <c r="I68" t="n">
-        <v>99.63687886</v>
+        <v>100.88705353</v>
       </c>
       <c r="J68" t="n">
-        <v>101.68852228</v>
+        <v>100.30182125</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>100.54001809</v>
+        <v>99.88370702</v>
       </c>
       <c r="C69" t="n">
-        <v>100.42925703</v>
+        <v>100.86984282</v>
       </c>
       <c r="D69" t="n">
-        <v>100.24134888</v>
+        <v>100.06071399</v>
       </c>
       <c r="E69" t="n">
-        <v>100.55593756</v>
+        <v>99.84657089</v>
       </c>
       <c r="F69" t="n">
-        <v>100.05608685</v>
+        <v>100.0356888</v>
       </c>
       <c r="G69" t="n">
-        <v>100.30945618</v>
+        <v>100.21171586</v>
       </c>
       <c r="H69" t="n">
-        <v>100.08464413</v>
+        <v>100.3262849</v>
       </c>
       <c r="I69" t="n">
-        <v>100.56610328</v>
+        <v>100.39527327</v>
       </c>
       <c r="J69" t="n">
-        <v>100.54634432</v>
+        <v>102.43369597</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>99.72061469</v>
+        <v>100.07162717</v>
       </c>
       <c r="C70" t="n">
-        <v>99.965035</v>
+        <v>101.16347604</v>
       </c>
       <c r="D70" t="n">
-        <v>100.15318064</v>
+        <v>100.13434855</v>
       </c>
       <c r="E70" t="n">
-        <v>100.67892638</v>
+        <v>100.24670126</v>
       </c>
       <c r="F70" t="n">
-        <v>100.11529131</v>
+        <v>100.17998766</v>
       </c>
       <c r="G70" t="n">
-        <v>100.25256374</v>
+        <v>100.2262415</v>
       </c>
       <c r="H70" t="n">
-        <v>99.95477606999999</v>
+        <v>100.09709536</v>
       </c>
       <c r="I70" t="n">
-        <v>100.6617938</v>
+        <v>100.12121026</v>
       </c>
       <c r="J70" t="n">
-        <v>99.4304647</v>
+        <v>103.13085239</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>99.78868344999999</v>
+        <v>100.6988212</v>
       </c>
       <c r="C71" t="n">
-        <v>99.97441037</v>
+        <v>101.01765667</v>
       </c>
       <c r="D71" t="n">
-        <v>100.22618532</v>
+        <v>100.50306092</v>
       </c>
       <c r="E71" t="n">
-        <v>99.79390257999999</v>
+        <v>100.34410105</v>
       </c>
       <c r="F71" t="n">
-        <v>100.06519133</v>
+        <v>100.1685581</v>
       </c>
       <c r="G71" t="n">
-        <v>100.30795521</v>
+        <v>100.28413455</v>
       </c>
       <c r="H71" t="n">
-        <v>100.0421146</v>
+        <v>100.01791446</v>
       </c>
       <c r="I71" t="n">
-        <v>100.74275597</v>
+        <v>99.4376693</v>
       </c>
       <c r="J71" t="n">
-        <v>99.63126626</v>
+        <v>102.46843529</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>100.22824442</v>
+        <v>99.73070690999999</v>
       </c>
       <c r="C72" t="n">
-        <v>100.29454067</v>
+        <v>99.00467819000001</v>
       </c>
       <c r="D72" t="n">
-        <v>99.99870509</v>
+        <v>99.99103468</v>
       </c>
       <c r="E72" t="n">
-        <v>99.86169934999999</v>
+        <v>100.1298709</v>
       </c>
       <c r="F72" t="n">
-        <v>100.13807197</v>
+        <v>100.13149704</v>
       </c>
       <c r="G72" t="n">
-        <v>100.28886712</v>
+        <v>100.28196392</v>
       </c>
       <c r="H72" t="n">
-        <v>99.97701863</v>
+        <v>99.9683926</v>
       </c>
       <c r="I72" t="n">
-        <v>100.44987744</v>
+        <v>100.09204222</v>
       </c>
       <c r="J72" t="n">
-        <v>100.55581083</v>
+        <v>96.98791782000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>100.07162717</v>
+        <v>99.55801257</v>
       </c>
       <c r="C73" t="n">
-        <v>101.16347604</v>
+        <v>100.07465264</v>
       </c>
       <c r="D73" t="n">
-        <v>100.13434855</v>
+        <v>100.09217506</v>
       </c>
       <c r="E73" t="n">
-        <v>100.24670126</v>
+        <v>100.2338437</v>
       </c>
       <c r="F73" t="n">
-        <v>100.17998766</v>
+        <v>100.14947968</v>
       </c>
       <c r="G73" t="n">
-        <v>100.2262415</v>
+        <v>100.14298878</v>
       </c>
       <c r="H73" t="n">
-        <v>100.09709536</v>
+        <v>99.98357046</v>
       </c>
       <c r="I73" t="n">
-        <v>100.12121026</v>
+        <v>100.59930027</v>
       </c>
       <c r="J73" t="n">
-        <v>103.13085239</v>
+        <v>100.01704162</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>100.6988212</v>
+        <v>99.68156583</v>
       </c>
       <c r="C74" t="n">
-        <v>101.01765667</v>
+        <v>99.49398324000001</v>
       </c>
       <c r="D74" t="n">
-        <v>100.50306092</v>
+        <v>100.15355612</v>
       </c>
       <c r="E74" t="n">
-        <v>100.34410105</v>
+        <v>100.0018662</v>
       </c>
       <c r="F74" t="n">
-        <v>100.1685581</v>
+        <v>100.07025757</v>
       </c>
       <c r="G74" t="n">
-        <v>100.28413455</v>
+        <v>100.06812848</v>
       </c>
       <c r="H74" t="n">
-        <v>100.01791446</v>
+        <v>99.91202942</v>
       </c>
       <c r="I74" t="n">
-        <v>99.4376693</v>
+        <v>100.18314779</v>
       </c>
       <c r="J74" t="n">
-        <v>102.46843529</v>
+        <v>98.48359357</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>99.73070690999999</v>
+        <v>100.02188332</v>
       </c>
       <c r="C75" t="n">
-        <v>99.00467819000001</v>
+        <v>100.08651692</v>
       </c>
       <c r="D75" t="n">
-        <v>99.99103468</v>
+        <v>100.11790206</v>
       </c>
       <c r="E75" t="n">
-        <v>100.1298709</v>
+        <v>100.02655412</v>
       </c>
       <c r="F75" t="n">
-        <v>100.13149704</v>
+        <v>100.1711363</v>
       </c>
       <c r="G75" t="n">
-        <v>100.28196392</v>
+        <v>100.07275631</v>
       </c>
       <c r="H75" t="n">
-        <v>99.9683926</v>
+        <v>99.91448233</v>
       </c>
       <c r="I75" t="n">
-        <v>100.09204222</v>
+        <v>100.09800647</v>
       </c>
       <c r="J75" t="n">
-        <v>96.98791782000001</v>
+        <v>100.12827488</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>99.55801257</v>
+        <v>100.20859294</v>
       </c>
       <c r="C76" t="n">
-        <v>100.07465264</v>
+        <v>100.049252</v>
       </c>
       <c r="D76" t="n">
-        <v>100.09217506</v>
+        <v>100.02573021</v>
       </c>
       <c r="E76" t="n">
-        <v>100.2338437</v>
+        <v>100.40584834</v>
       </c>
       <c r="F76" t="n">
-        <v>100.14947968</v>
+        <v>100.11193651</v>
       </c>
       <c r="G76" t="n">
-        <v>100.14298878</v>
+        <v>100.12587836</v>
       </c>
       <c r="H76" t="n">
-        <v>99.98357046</v>
+        <v>99.97293261999999</v>
       </c>
       <c r="I76" t="n">
-        <v>100.59930027</v>
+        <v>99.56531731</v>
       </c>
       <c r="J76" t="n">
-        <v>100.01704162</v>
+        <v>99.96658370999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>99.68156583</v>
+        <v>100.18163026</v>
       </c>
       <c r="C77" t="n">
-        <v>99.49398324000001</v>
+        <v>100.5799426</v>
       </c>
       <c r="D77" t="n">
-        <v>100.15355612</v>
+        <v>100.08989958</v>
       </c>
       <c r="E77" t="n">
-        <v>100.0018662</v>
+        <v>100.00084958</v>
       </c>
       <c r="F77" t="n">
-        <v>100.07025757</v>
+        <v>100.03564631</v>
       </c>
       <c r="G77" t="n">
-        <v>100.06812848</v>
+        <v>100.16368587</v>
       </c>
       <c r="H77" t="n">
-        <v>99.91202942</v>
+        <v>99.92947688</v>
       </c>
       <c r="I77" t="n">
-        <v>100.18314779</v>
+        <v>99.62572344</v>
       </c>
       <c r="J77" t="n">
-        <v>98.48359357</v>
+        <v>101.64020709</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100.02188332</v>
+        <v>100.30600286</v>
       </c>
       <c r="C78" t="n">
-        <v>100.08651692</v>
+        <v>100.79224823</v>
       </c>
       <c r="D78" t="n">
-        <v>100.11790206</v>
+        <v>100.12593685</v>
       </c>
       <c r="E78" t="n">
-        <v>100.02655412</v>
+        <v>100.78307724</v>
       </c>
       <c r="F78" t="n">
-        <v>100.1711363</v>
+        <v>100.02421966</v>
       </c>
       <c r="G78" t="n">
-        <v>100.07275631</v>
+        <v>100.22268233</v>
       </c>
       <c r="H78" t="n">
-        <v>99.91448233</v>
+        <v>99.91441158000001</v>
       </c>
       <c r="I78" t="n">
-        <v>100.09800647</v>
+        <v>100.75876951</v>
       </c>
       <c r="J78" t="n">
-        <v>100.12827488</v>
+        <v>101.67138916</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>100.20859294</v>
+        <v>99.72061469</v>
       </c>
       <c r="C79" t="n">
-        <v>100.049252</v>
+        <v>99.965035</v>
       </c>
       <c r="D79" t="n">
-        <v>100.02573021</v>
+        <v>100.15318064</v>
       </c>
       <c r="E79" t="n">
-        <v>100.40584834</v>
+        <v>100.67892638</v>
       </c>
       <c r="F79" t="n">
-        <v>100.11193651</v>
+        <v>100.11529131</v>
       </c>
       <c r="G79" t="n">
-        <v>100.12587836</v>
+        <v>100.25256374</v>
       </c>
       <c r="H79" t="n">
-        <v>99.97293261999999</v>
+        <v>99.95477606999999</v>
       </c>
       <c r="I79" t="n">
-        <v>99.56531731</v>
+        <v>100.6617938</v>
       </c>
       <c r="J79" t="n">
-        <v>99.96658370999999</v>
+        <v>99.4304647</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>100.18163026</v>
+        <v>99.78868344999999</v>
       </c>
       <c r="C80" t="n">
-        <v>100.5799426</v>
+        <v>99.97441037</v>
       </c>
       <c r="D80" t="n">
-        <v>100.08989958</v>
+        <v>100.22618532</v>
       </c>
       <c r="E80" t="n">
-        <v>100.00084958</v>
+        <v>99.79390257999999</v>
       </c>
       <c r="F80" t="n">
-        <v>100.03564631</v>
+        <v>100.06519133</v>
       </c>
       <c r="G80" t="n">
-        <v>100.16368587</v>
+        <v>100.30795521</v>
       </c>
       <c r="H80" t="n">
-        <v>99.92947688</v>
+        <v>100.0421146</v>
       </c>
       <c r="I80" t="n">
-        <v>99.62572344</v>
+        <v>100.74275597</v>
       </c>
       <c r="J80" t="n">
-        <v>101.64020709</v>
+        <v>99.63126626</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>100.30600286</v>
+        <v>100.22824442</v>
       </c>
       <c r="C81" t="n">
-        <v>100.79224823</v>
+        <v>100.29454067</v>
       </c>
       <c r="D81" t="n">
-        <v>100.12593685</v>
+        <v>99.99870509</v>
       </c>
       <c r="E81" t="n">
-        <v>100.78307724</v>
+        <v>99.86169934999999</v>
       </c>
       <c r="F81" t="n">
-        <v>100.02421966</v>
+        <v>100.13807197</v>
       </c>
       <c r="G81" t="n">
-        <v>100.22268233</v>
+        <v>100.28886712</v>
       </c>
       <c r="H81" t="n">
-        <v>99.91441158000001</v>
+        <v>99.97701863</v>
       </c>
       <c r="I81" t="n">
-        <v>100.75876951</v>
+        <v>100.44987744</v>
       </c>
       <c r="J81" t="n">
-        <v>101.67138916</v>
+        <v>100.55581083</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>99.6361</v>
+        <v>100.28537701</v>
       </c>
       <c r="C82" t="n">
-        <v>99.96759414</v>
+        <v>100.88676972</v>
       </c>
       <c r="D82" t="n">
-        <v>100.09918575</v>
+        <v>100.42188085</v>
       </c>
       <c r="E82" t="n">
-        <v>100.17047595</v>
+        <v>100.40168075</v>
       </c>
       <c r="F82" t="n">
-        <v>100.10877469</v>
+        <v>100.22194686</v>
       </c>
       <c r="G82" t="n">
-        <v>100.0810939</v>
+        <v>100.28520538</v>
       </c>
       <c r="H82" t="n">
-        <v>100.06792056</v>
+        <v>99.84293277</v>
       </c>
       <c r="I82" t="n">
-        <v>100.95548764</v>
+        <v>99.88810597</v>
       </c>
       <c r="J82" t="n">
-        <v>99.64620733</v>
+        <v>102.12994925</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>99.34612951</v>
+        <v>100.1790547</v>
       </c>
       <c r="C83" t="n">
-        <v>99.82104671</v>
+        <v>100.45699812</v>
       </c>
       <c r="D83" t="n">
-        <v>100.20061408</v>
+        <v>100.13024945</v>
       </c>
       <c r="E83" t="n">
-        <v>99.72887188999999</v>
+        <v>99.97374026999999</v>
       </c>
       <c r="F83" t="n">
-        <v>100.16984581</v>
+        <v>100.09812157</v>
       </c>
       <c r="G83" t="n">
-        <v>99.95171578999999</v>
+        <v>100.21985809</v>
       </c>
       <c r="H83" t="n">
-        <v>99.88685814999999</v>
+        <v>99.93750015000001</v>
       </c>
       <c r="I83" t="n">
-        <v>100.76340665</v>
+        <v>99.43696656</v>
       </c>
       <c r="J83" t="n">
-        <v>99.53329499</v>
+        <v>101.24472937</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>99.66791168</v>
+        <v>99.71995953</v>
       </c>
       <c r="C84" t="n">
-        <v>100.34227282</v>
+        <v>99.42094407</v>
       </c>
       <c r="D84" t="n">
-        <v>100.26404066</v>
+        <v>100.01005906</v>
       </c>
       <c r="E84" t="n">
-        <v>99.8852404</v>
+        <v>99.87365246</v>
       </c>
       <c r="F84" t="n">
-        <v>100.16241731</v>
+        <v>99.99588448999999</v>
       </c>
       <c r="G84" t="n">
-        <v>99.93676721</v>
+        <v>100.2495732</v>
       </c>
       <c r="H84" t="n">
-        <v>99.91541787</v>
+        <v>100.05829303</v>
       </c>
       <c r="I84" t="n">
-        <v>100.25893657</v>
+        <v>100.36326079</v>
       </c>
       <c r="J84" t="n">
-        <v>101.01785004</v>
+        <v>98.22689076</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>100.28537701</v>
+        <v>99.94854599</v>
       </c>
       <c r="C85" t="n">
-        <v>100.88676972</v>
+        <v>99.63072542</v>
       </c>
       <c r="D85" t="n">
-        <v>100.42188085</v>
+        <v>100.04132282</v>
       </c>
       <c r="E85" t="n">
-        <v>100.40168075</v>
+        <v>100.08314465</v>
       </c>
       <c r="F85" t="n">
-        <v>100.22194686</v>
+        <v>100.16038909</v>
       </c>
       <c r="G85" t="n">
-        <v>100.28520538</v>
+        <v>100.11753644</v>
       </c>
       <c r="H85" t="n">
-        <v>99.84293277</v>
+        <v>100.02272678</v>
       </c>
       <c r="I85" t="n">
-        <v>99.88810597</v>
+        <v>100.59960634</v>
       </c>
       <c r="J85" t="n">
-        <v>102.12994925</v>
+        <v>98.67502591</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>100.1790547</v>
+        <v>100.17306176</v>
       </c>
       <c r="C86" t="n">
-        <v>100.45699812</v>
+        <v>100.17764128</v>
       </c>
       <c r="D86" t="n">
-        <v>100.13024945</v>
+        <v>100.05951353</v>
       </c>
       <c r="E86" t="n">
-        <v>99.97374026999999</v>
+        <v>99.95594323</v>
       </c>
       <c r="F86" t="n">
-        <v>100.09812157</v>
+        <v>100.08358046</v>
       </c>
       <c r="G86" t="n">
-        <v>100.21985809</v>
+        <v>99.9934803</v>
       </c>
       <c r="H86" t="n">
-        <v>99.93750015000001</v>
+        <v>99.91774617</v>
       </c>
       <c r="I86" t="n">
-        <v>99.43696656</v>
+        <v>100.33276721</v>
       </c>
       <c r="J86" t="n">
-        <v>101.24472937</v>
+        <v>100.3910404</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>99.71995953</v>
+        <v>100.10901996</v>
       </c>
       <c r="C87" t="n">
-        <v>99.42094407</v>
+        <v>99.90609502</v>
       </c>
       <c r="D87" t="n">
-        <v>100.01005906</v>
+        <v>99.99894506</v>
       </c>
       <c r="E87" t="n">
-        <v>99.87365246</v>
+        <v>100.04432905</v>
       </c>
       <c r="F87" t="n">
-        <v>99.99588448999999</v>
+        <v>100.0614559</v>
       </c>
       <c r="G87" t="n">
-        <v>100.2495732</v>
+        <v>99.87814691</v>
       </c>
       <c r="H87" t="n">
-        <v>100.05829303</v>
+        <v>99.95421552000001</v>
       </c>
       <c r="I87" t="n">
-        <v>100.36326079</v>
+        <v>99.97164490999999</v>
       </c>
       <c r="J87" t="n">
-        <v>98.22689076</v>
+        <v>99.75035407</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>99.94854599</v>
+        <v>100.1629089</v>
       </c>
       <c r="C88" t="n">
-        <v>99.63072542</v>
+        <v>100.04564472</v>
       </c>
       <c r="D88" t="n">
-        <v>100.04132282</v>
+        <v>100.08639293</v>
       </c>
       <c r="E88" t="n">
-        <v>100.08314465</v>
+        <v>100.27727777</v>
       </c>
       <c r="F88" t="n">
-        <v>100.16038909</v>
+        <v>100.07621121</v>
       </c>
       <c r="G88" t="n">
-        <v>100.11753644</v>
+        <v>100.04238886</v>
       </c>
       <c r="H88" t="n">
-        <v>100.02272678</v>
+        <v>99.99681</v>
       </c>
       <c r="I88" t="n">
-        <v>100.59960634</v>
+        <v>99.60709022</v>
       </c>
       <c r="J88" t="n">
-        <v>98.67502591</v>
+        <v>100.03413442</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>100.17306176</v>
+        <v>99.68380449999999</v>
       </c>
       <c r="C89" t="n">
-        <v>100.17764128</v>
+        <v>100.3009732</v>
       </c>
       <c r="D89" t="n">
-        <v>100.05951353</v>
+        <v>100.23387561</v>
       </c>
       <c r="E89" t="n">
-        <v>99.95594323</v>
+        <v>100.00970904</v>
       </c>
       <c r="F89" t="n">
-        <v>100.08358046</v>
+        <v>99.98803656</v>
       </c>
       <c r="G89" t="n">
-        <v>99.9934803</v>
+        <v>99.97589856</v>
       </c>
       <c r="H89" t="n">
-        <v>99.91774617</v>
+        <v>100.01339345</v>
       </c>
       <c r="I89" t="n">
-        <v>100.33276721</v>
+        <v>99.555909</v>
       </c>
       <c r="J89" t="n">
-        <v>100.3910404</v>
+        <v>101.02771236</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>100.10901996</v>
+        <v>99.74255547</v>
       </c>
       <c r="C90" t="n">
-        <v>99.90609502</v>
+        <v>100.36334649</v>
       </c>
       <c r="D90" t="n">
-        <v>99.99894506</v>
+        <v>100.06136436</v>
       </c>
       <c r="E90" t="n">
-        <v>100.04432905</v>
+        <v>100.49449906</v>
       </c>
       <c r="F90" t="n">
-        <v>100.0614559</v>
+        <v>100.10187693</v>
       </c>
       <c r="G90" t="n">
-        <v>99.87814691</v>
+        <v>99.98061905</v>
       </c>
       <c r="H90" t="n">
-        <v>99.95421552000001</v>
+        <v>99.96506230999999</v>
       </c>
       <c r="I90" t="n">
-        <v>99.97164490999999</v>
+        <v>100.55578485</v>
       </c>
       <c r="J90" t="n">
-        <v>99.75035407</v>
+        <v>100.84056147</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>100.1629089</v>
+        <v>99.6361</v>
       </c>
       <c r="C91" t="n">
-        <v>100.04564472</v>
+        <v>99.96759414</v>
       </c>
       <c r="D91" t="n">
-        <v>100.08639293</v>
+        <v>100.09918575</v>
       </c>
       <c r="E91" t="n">
-        <v>100.27727777</v>
+        <v>100.17047595</v>
       </c>
       <c r="F91" t="n">
-        <v>100.07621121</v>
+        <v>100.10877469</v>
       </c>
       <c r="G91" t="n">
-        <v>100.04238886</v>
+        <v>100.0810939</v>
       </c>
       <c r="H91" t="n">
-        <v>99.99681</v>
+        <v>100.06792056</v>
       </c>
       <c r="I91" t="n">
-        <v>99.60709022</v>
+        <v>100.95548764</v>
       </c>
       <c r="J91" t="n">
-        <v>100.03413442</v>
+        <v>99.64620733</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>99.68380449999999</v>
+        <v>99.34612951</v>
       </c>
       <c r="C92" t="n">
-        <v>100.3009732</v>
+        <v>99.82104671</v>
       </c>
       <c r="D92" t="n">
-        <v>100.23387561</v>
+        <v>100.20061408</v>
       </c>
       <c r="E92" t="n">
-        <v>100.00970904</v>
+        <v>99.72887188999999</v>
       </c>
       <c r="F92" t="n">
-        <v>99.98803656</v>
+        <v>100.16984581</v>
       </c>
       <c r="G92" t="n">
-        <v>99.97589856</v>
+        <v>99.95171578999999</v>
       </c>
       <c r="H92" t="n">
-        <v>100.01339345</v>
+        <v>99.88685814999999</v>
       </c>
       <c r="I92" t="n">
-        <v>99.555909</v>
+        <v>100.76340665</v>
       </c>
       <c r="J92" t="n">
-        <v>101.02771236</v>
+        <v>99.53329499</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>99.74255547</v>
+        <v>99.66791168</v>
       </c>
       <c r="C93" t="n">
-        <v>100.36334649</v>
+        <v>100.34227282</v>
       </c>
       <c r="D93" t="n">
-        <v>100.06136436</v>
+        <v>100.26404066</v>
       </c>
       <c r="E93" t="n">
-        <v>100.49449906</v>
+        <v>99.8852404</v>
       </c>
       <c r="F93" t="n">
-        <v>100.10187693</v>
+        <v>100.16241731</v>
       </c>
       <c r="G93" t="n">
-        <v>99.98061905</v>
+        <v>99.93676721</v>
       </c>
       <c r="H93" t="n">
-        <v>99.96506230999999</v>
+        <v>99.91541787</v>
       </c>
       <c r="I93" t="n">
-        <v>100.55578485</v>
+        <v>100.25893657</v>
       </c>
       <c r="J93" t="n">
-        <v>100.84056147</v>
+        <v>101.01785004</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>100.00549055</v>
+        <v>99.30147694</v>
       </c>
       <c r="C94" t="n">
-        <v>99.68763339</v>
+        <v>100.21724374</v>
       </c>
       <c r="D94" t="n">
-        <v>100.20326482</v>
+        <v>100.56459207</v>
       </c>
       <c r="E94" t="n">
-        <v>99.96085619</v>
+        <v>100.25521384</v>
       </c>
       <c r="F94" t="n">
-        <v>100.03494866</v>
+        <v>100.14668188</v>
       </c>
       <c r="G94" t="n">
-        <v>99.95925068</v>
+        <v>100.04007683</v>
       </c>
       <c r="H94" t="n">
-        <v>100.01572221</v>
+        <v>99.96087632</v>
       </c>
       <c r="I94" t="n">
-        <v>100.60653266</v>
+        <v>100.02500183</v>
       </c>
       <c r="J94" t="n">
-        <v>98.93892707000001</v>
+        <v>100.55401686</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>99.76880020999999</v>
+        <v>100.43729249</v>
       </c>
       <c r="C95" t="n">
-        <v>99.95922159</v>
+        <v>101.02757376</v>
       </c>
       <c r="D95" t="n">
-        <v>100.50438308</v>
+        <v>100.63906226</v>
       </c>
       <c r="E95" t="n">
-        <v>99.88042828</v>
+        <v>100.53602573</v>
       </c>
       <c r="F95" t="n">
-        <v>100.01741999</v>
+        <v>100.29847983</v>
       </c>
       <c r="G95" t="n">
-        <v>100.01645333</v>
+        <v>100.02915702</v>
       </c>
       <c r="H95" t="n">
-        <v>100.02531179</v>
+        <v>99.82809396</v>
       </c>
       <c r="I95" t="n">
-        <v>100.59892885</v>
+        <v>99.43362691999999</v>
       </c>
       <c r="J95" t="n">
-        <v>99.69291463</v>
+        <v>102.6037959</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>99.77328376</v>
+        <v>100.06800475</v>
       </c>
       <c r="C96" t="n">
-        <v>100.50271585</v>
+        <v>99.43966983</v>
       </c>
       <c r="D96" t="n">
-        <v>100.23126695</v>
+        <v>99.69778076999999</v>
       </c>
       <c r="E96" t="n">
-        <v>99.92818516</v>
+        <v>99.80281461</v>
       </c>
       <c r="F96" t="n">
-        <v>100.03395727</v>
+        <v>99.83485829</v>
       </c>
       <c r="G96" t="n">
-        <v>100.00462358</v>
+        <v>99.9668286</v>
       </c>
       <c r="H96" t="n">
-        <v>99.96573284</v>
+        <v>100.0011197</v>
       </c>
       <c r="I96" t="n">
-        <v>100.27876193</v>
+        <v>100.27976995</v>
       </c>
       <c r="J96" t="n">
-        <v>101.40599826</v>
+        <v>98.50345495000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>99.30147694</v>
+        <v>99.85415273</v>
       </c>
       <c r="C97" t="n">
-        <v>100.21724374</v>
+        <v>99.73275185</v>
       </c>
       <c r="D97" t="n">
-        <v>100.56459207</v>
+        <v>100.19850421</v>
       </c>
       <c r="E97" t="n">
-        <v>100.25521384</v>
+        <v>100.20425436</v>
       </c>
       <c r="F97" t="n">
-        <v>100.14668188</v>
+        <v>100.03549923</v>
       </c>
       <c r="G97" t="n">
-        <v>100.04007683</v>
+        <v>99.8927922</v>
       </c>
       <c r="H97" t="n">
-        <v>99.96087632</v>
+        <v>99.98474324999999</v>
       </c>
       <c r="I97" t="n">
-        <v>100.02500183</v>
+        <v>100.51358194</v>
       </c>
       <c r="J97" t="n">
-        <v>100.55401686</v>
+        <v>99.09639004</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>100.43729249</v>
+        <v>100.49761549</v>
       </c>
       <c r="C98" t="n">
-        <v>101.02757376</v>
+        <v>99.87975754</v>
       </c>
       <c r="D98" t="n">
-        <v>100.63906226</v>
+        <v>100.08964735</v>
       </c>
       <c r="E98" t="n">
-        <v>100.53602573</v>
+        <v>100.03985967</v>
       </c>
       <c r="F98" t="n">
-        <v>100.29847983</v>
+        <v>100.03068522</v>
       </c>
       <c r="G98" t="n">
-        <v>100.02915702</v>
+        <v>99.92468400999999</v>
       </c>
       <c r="H98" t="n">
-        <v>99.82809396</v>
+        <v>102.21435013</v>
       </c>
       <c r="I98" t="n">
-        <v>99.43362691999999</v>
+        <v>100.40695028</v>
       </c>
       <c r="J98" t="n">
-        <v>102.6037959</v>
+        <v>99.17405742</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>100.06800475</v>
+        <v>99.88642373</v>
       </c>
       <c r="C99" t="n">
-        <v>99.43966983</v>
+        <v>100.08136045</v>
       </c>
       <c r="D99" t="n">
-        <v>99.69778076999999</v>
+        <v>100.23230185</v>
       </c>
       <c r="E99" t="n">
-        <v>99.80281461</v>
+        <v>100.07095385</v>
       </c>
       <c r="F99" t="n">
-        <v>99.83485829</v>
+        <v>100.0188184</v>
       </c>
       <c r="G99" t="n">
-        <v>99.9668286</v>
+        <v>99.88067112</v>
       </c>
       <c r="H99" t="n">
-        <v>100.0011197</v>
+        <v>102.01301083</v>
       </c>
       <c r="I99" t="n">
-        <v>100.27976995</v>
+        <v>100.18503474</v>
       </c>
       <c r="J99" t="n">
-        <v>98.50345495000001</v>
+        <v>99.97489976</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>99.85415273</v>
+        <v>99.84649208</v>
       </c>
       <c r="C100" t="n">
-        <v>99.73275185</v>
+        <v>100.30229738</v>
       </c>
       <c r="D100" t="n">
-        <v>100.19850421</v>
+        <v>100.07555501</v>
       </c>
       <c r="E100" t="n">
-        <v>100.20425436</v>
+        <v>100.34121562</v>
       </c>
       <c r="F100" t="n">
-        <v>100.03549923</v>
+        <v>99.98661011</v>
       </c>
       <c r="G100" t="n">
-        <v>99.8927922</v>
+        <v>99.87812665</v>
       </c>
       <c r="H100" t="n">
-        <v>99.98474324999999</v>
+        <v>100.07072802</v>
       </c>
       <c r="I100" t="n">
-        <v>100.51358194</v>
+        <v>99.60411338999999</v>
       </c>
       <c r="J100" t="n">
-        <v>99.09639004</v>
+        <v>100.95455817</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>100.49761549</v>
+        <v>99.38486761</v>
       </c>
       <c r="C101" t="n">
-        <v>99.87975754</v>
+        <v>100.59152553</v>
       </c>
       <c r="D101" t="n">
-        <v>100.08964735</v>
+        <v>100.14356421</v>
       </c>
       <c r="E101" t="n">
-        <v>100.03985967</v>
+        <v>100.03771459</v>
       </c>
       <c r="F101" t="n">
-        <v>100.03068522</v>
+        <v>99.99039126</v>
       </c>
       <c r="G101" t="n">
-        <v>99.92468400999999</v>
+        <v>99.91292702</v>
       </c>
       <c r="H101" t="n">
-        <v>102.21435013</v>
+        <v>100.05552173</v>
       </c>
       <c r="I101" t="n">
-        <v>100.40695028</v>
+        <v>99.52234392</v>
       </c>
       <c r="J101" t="n">
-        <v>99.17405742</v>
+        <v>101.9894862</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>99.88642373</v>
+        <v>99.64586810999999</v>
       </c>
       <c r="C102" t="n">
-        <v>100.08136045</v>
+        <v>100.0505089</v>
       </c>
       <c r="D102" t="n">
-        <v>100.23230185</v>
+        <v>100.25410035</v>
       </c>
       <c r="E102" t="n">
-        <v>100.07095385</v>
+        <v>100.55654318</v>
       </c>
       <c r="F102" t="n">
-        <v>100.0188184</v>
+        <v>100.03537778</v>
       </c>
       <c r="G102" t="n">
-        <v>99.88067112</v>
+        <v>99.99691188</v>
       </c>
       <c r="H102" t="n">
-        <v>102.01301083</v>
+        <v>99.99108483000001</v>
       </c>
       <c r="I102" t="n">
-        <v>100.18503474</v>
+        <v>100.50766878</v>
       </c>
       <c r="J102" t="n">
-        <v>99.97489976</v>
+        <v>99.89174558000001</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>99.84649208</v>
+        <v>100.00549055</v>
       </c>
       <c r="C103" t="n">
-        <v>100.30229738</v>
+        <v>99.68763339</v>
       </c>
       <c r="D103" t="n">
-        <v>100.07555501</v>
+        <v>100.20326482</v>
       </c>
       <c r="E103" t="n">
-        <v>100.34121562</v>
+        <v>99.96085619</v>
       </c>
       <c r="F103" t="n">
-        <v>99.98661011</v>
+        <v>100.03494866</v>
       </c>
       <c r="G103" t="n">
-        <v>99.87812665</v>
+        <v>99.95925068</v>
       </c>
       <c r="H103" t="n">
-        <v>100.07072802</v>
+        <v>100.01572221</v>
       </c>
       <c r="I103" t="n">
-        <v>99.60411338999999</v>
+        <v>100.60653266</v>
       </c>
       <c r="J103" t="n">
-        <v>100.95455817</v>
+        <v>98.93892707000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>99.38486761</v>
+        <v>99.76880020999999</v>
       </c>
       <c r="C104" t="n">
-        <v>100.59152553</v>
+        <v>99.95922159</v>
       </c>
       <c r="D104" t="n">
-        <v>100.14356421</v>
+        <v>100.50438308</v>
       </c>
       <c r="E104" t="n">
-        <v>100.03771459</v>
+        <v>99.88042828</v>
       </c>
       <c r="F104" t="n">
-        <v>99.99039126</v>
+        <v>100.01741999</v>
       </c>
       <c r="G104" t="n">
-        <v>99.91292702</v>
+        <v>100.01645333</v>
       </c>
       <c r="H104" t="n">
-        <v>100.05552173</v>
+        <v>100.02531179</v>
       </c>
       <c r="I104" t="n">
-        <v>99.52234392</v>
+        <v>100.59892885</v>
       </c>
       <c r="J104" t="n">
-        <v>101.9894862</v>
+        <v>99.69291463</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>99.64586810999999</v>
+        <v>99.77328376</v>
       </c>
       <c r="C105" t="n">
-        <v>100.0505089</v>
+        <v>100.50271585</v>
       </c>
       <c r="D105" t="n">
-        <v>100.25410035</v>
+        <v>100.23126695</v>
       </c>
       <c r="E105" t="n">
-        <v>100.55654318</v>
+        <v>99.92818516</v>
       </c>
       <c r="F105" t="n">
-        <v>100.03537778</v>
+        <v>100.03395727</v>
       </c>
       <c r="G105" t="n">
-        <v>99.99691188</v>
+        <v>100.00462358</v>
       </c>
       <c r="H105" t="n">
-        <v>99.99108483000001</v>
+        <v>99.96573284</v>
       </c>
       <c r="I105" t="n">
-        <v>100.50766878</v>
+        <v>100.27876193</v>
       </c>
       <c r="J105" t="n">
-        <v>99.89174558000001</v>
+        <v>101.40599826</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/农村居民消费价格分类指数(上月=100)(-2015).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/农村居民消费价格分类指数(上月=100)(-2015).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,3537 +483,2449 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006-12</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.3</v>
+        <v>100.00773321</v>
       </c>
       <c r="C2" t="n">
-        <v>101.4</v>
+        <v>100.64730589</v>
       </c>
       <c r="D2" t="n">
-        <v>100.2</v>
+        <v>100.45510747</v>
       </c>
       <c r="E2" t="n">
-        <v>99.90000000000001</v>
+        <v>100.09193185</v>
       </c>
       <c r="F2" t="n">
-        <v>100.2</v>
+        <v>100.12044384</v>
       </c>
       <c r="G2" t="n">
-        <v>100.8</v>
+        <v>101.18938814</v>
       </c>
       <c r="H2" t="n">
-        <v>100.5</v>
+        <v>100.15516696</v>
       </c>
       <c r="I2" t="n">
-        <v>100.7</v>
+        <v>100.99173894</v>
       </c>
       <c r="J2" t="n">
-        <v>103.7</v>
+        <v>100.90581688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007-01</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.90000000000001</v>
+        <v>100.09450033</v>
       </c>
       <c r="C3" t="n">
-        <v>100.7</v>
+        <v>101.28171239</v>
       </c>
       <c r="D3" t="n">
-        <v>100.4</v>
+        <v>100.64305404</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>99.66679886</v>
       </c>
       <c r="F3" t="n">
-        <v>100.2</v>
+        <v>100.29013522</v>
       </c>
       <c r="G3" t="n">
-        <v>100.1</v>
+        <v>102.18921589</v>
       </c>
       <c r="H3" t="n">
-        <v>100.1</v>
+        <v>100.18078917</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>101.40248198</v>
       </c>
       <c r="J3" t="n">
-        <v>101.9</v>
+        <v>102.23563254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007-02</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.8</v>
+        <v>100.10674269</v>
       </c>
       <c r="C4" t="n">
-        <v>100.9</v>
+        <v>100.55453203</v>
       </c>
       <c r="D4" t="n">
-        <v>100.5</v>
+        <v>100.37450446</v>
       </c>
       <c r="E4" t="n">
-        <v>100.4</v>
+        <v>99.82837504</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2</v>
+        <v>100.10087091</v>
       </c>
       <c r="G4" t="n">
-        <v>99.90000000000001</v>
+        <v>101.12990541</v>
       </c>
       <c r="H4" t="n">
-        <v>100.3</v>
+        <v>100.2828382</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5</v>
+        <v>100.71949279</v>
       </c>
       <c r="J4" t="n">
-        <v>102.4</v>
+        <v>100.78705145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007-03</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.59999999999999</v>
+        <v>100.00049266</v>
       </c>
       <c r="C5" t="n">
-        <v>99.59999999999999</v>
+        <v>100.61756569</v>
       </c>
       <c r="D5" t="n">
-        <v>100.2</v>
+        <v>100.30765148</v>
       </c>
       <c r="E5" t="n">
-        <v>99.8</v>
+        <v>100.04189936</v>
       </c>
       <c r="F5" t="n">
-        <v>100.1</v>
+        <v>100.12096787</v>
       </c>
       <c r="G5" t="n">
-        <v>99.90000000000001</v>
+        <v>100.54029534</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>100.24688171</v>
       </c>
       <c r="I5" t="n">
-        <v>99.2</v>
+        <v>99.72062837</v>
       </c>
       <c r="J5" t="n">
-        <v>99.3</v>
+        <v>101.53710584</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007-04</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.59999999999999</v>
+        <v>100.67008825</v>
       </c>
       <c r="C6" t="n">
-        <v>99.8</v>
+        <v>101.0657415</v>
       </c>
       <c r="D6" t="n">
-        <v>100.3</v>
+        <v>100.35929033</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>100.4462793</v>
       </c>
       <c r="F6" t="n">
-        <v>100.1</v>
+        <v>100.05347191</v>
       </c>
       <c r="G6" t="n">
-        <v>100.3</v>
+        <v>100.15376602</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>100.14736856</v>
       </c>
       <c r="I6" t="n">
-        <v>100.1</v>
+        <v>98.99188881000001</v>
       </c>
       <c r="J6" t="n">
-        <v>99.40000000000001</v>
+        <v>102.91961772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007-05</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.83844557</v>
+        <v>99.45204115999999</v>
       </c>
       <c r="C7" t="n">
-        <v>100.4107842</v>
+        <v>99.38331635</v>
       </c>
       <c r="D7" t="n">
-        <v>100.49868127</v>
+        <v>100.01074088</v>
       </c>
       <c r="E7" t="n">
-        <v>100.04634729</v>
+        <v>99.87136520999999</v>
       </c>
       <c r="F7" t="n">
-        <v>100.18231316</v>
+        <v>99.87132776999999</v>
       </c>
       <c r="G7" t="n">
-        <v>100.14758727</v>
+        <v>99.95924573000001</v>
       </c>
       <c r="H7" t="n">
-        <v>100.05392025</v>
+        <v>100.08284511</v>
       </c>
       <c r="I7" t="n">
-        <v>100.07133755</v>
+        <v>99.48214595</v>
       </c>
       <c r="J7" t="n">
-        <v>101.00046215</v>
+        <v>98.52113597</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007-06</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.8</v>
+        <v>100.00074554</v>
       </c>
       <c r="C8" t="n">
-        <v>100.7</v>
+        <v>100.16115122</v>
       </c>
       <c r="D8" t="n">
-        <v>100.3</v>
+        <v>100.32618832</v>
       </c>
       <c r="E8" t="n">
-        <v>99.8</v>
+        <v>100.07935392</v>
       </c>
       <c r="F8" t="n">
-        <v>100.2</v>
+        <v>100.02879765</v>
       </c>
       <c r="G8" t="n">
-        <v>100.4</v>
+        <v>100.71549323</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>99.99035644999999</v>
       </c>
       <c r="I8" t="n">
-        <v>99.90000000000001</v>
+        <v>100.12325137</v>
       </c>
       <c r="J8" t="n">
-        <v>101.9</v>
+        <v>99.97449340999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.90000000000001</v>
+        <v>100.05304183</v>
       </c>
       <c r="C9" t="n">
-        <v>101.3</v>
+        <v>99.9657375</v>
       </c>
       <c r="D9" t="n">
-        <v>100.1</v>
+        <v>100.45421262</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>99.99510151</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>100.05798971</v>
       </c>
       <c r="G9" t="n">
-        <v>100.6</v>
+        <v>100.21255159</v>
       </c>
       <c r="H9" t="n">
-        <v>100.1</v>
+        <v>100.08616152</v>
       </c>
       <c r="I9" t="n">
-        <v>99.2</v>
+        <v>100.17046493</v>
       </c>
       <c r="J9" t="n">
-        <v>103.8</v>
+        <v>99.57816712</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>99.7166588</v>
       </c>
       <c r="C10" t="n">
-        <v>100.2</v>
+        <v>99.47999779</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3</v>
+        <v>100.23493263</v>
       </c>
       <c r="E10" t="n">
-        <v>99.90000000000001</v>
+        <v>99.94539688</v>
       </c>
       <c r="F10" t="n">
-        <v>100.1</v>
+        <v>100.07089607</v>
       </c>
       <c r="G10" t="n">
-        <v>100.8</v>
+        <v>99.92005191</v>
       </c>
       <c r="H10" t="n">
-        <v>100.1</v>
+        <v>100.13123031</v>
       </c>
       <c r="I10" t="n">
-        <v>100.2</v>
+        <v>100.00229122</v>
       </c>
       <c r="J10" t="n">
-        <v>100.2</v>
+        <v>98.46712592999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007-11</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.5</v>
+        <v>99.97803616</v>
       </c>
       <c r="C11" t="n">
-        <v>100.9</v>
+        <v>100.33780454</v>
       </c>
       <c r="D11" t="n">
-        <v>100.2</v>
+        <v>100.13485682</v>
       </c>
       <c r="E11" t="n">
-        <v>99.7</v>
+        <v>100.26247687</v>
       </c>
       <c r="F11" t="n">
-        <v>100.2</v>
+        <v>99.94603033999999</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9</v>
+        <v>99.93879196</v>
       </c>
       <c r="H11" t="n">
-        <v>100.2</v>
+        <v>100.0043617</v>
       </c>
       <c r="I11" t="n">
-        <v>100.7</v>
+        <v>99.4139454</v>
       </c>
       <c r="J11" t="n">
-        <v>101.4</v>
+        <v>101.097422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007-12</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>99.99569446</v>
       </c>
       <c r="C12" t="n">
-        <v>101</v>
+        <v>100.75923934</v>
       </c>
       <c r="D12" t="n">
-        <v>100.3</v>
+        <v>100.10415677</v>
       </c>
       <c r="E12" t="n">
-        <v>99.8</v>
+        <v>100.05878316</v>
       </c>
       <c r="F12" t="n">
-        <v>100.1</v>
+        <v>100.04507991</v>
       </c>
       <c r="G12" t="n">
-        <v>100.8</v>
+        <v>100.21614543</v>
       </c>
       <c r="H12" t="n">
-        <v>100.4</v>
+        <v>100.13251717</v>
       </c>
       <c r="I12" t="n">
-        <v>100.4</v>
+        <v>99.11930048000001</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3</v>
+        <v>102.34838597</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008-01</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.4</v>
+        <v>100.03059938</v>
       </c>
       <c r="C13" t="n">
-        <v>101.2</v>
+        <v>100.72127945</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3</v>
+        <v>100.26082124</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>100.68182045</v>
       </c>
       <c r="F13" t="n">
-        <v>100.2</v>
+        <v>100.01428887</v>
       </c>
       <c r="G13" t="n">
-        <v>100.4</v>
+        <v>100.58644566</v>
       </c>
       <c r="H13" t="n">
-        <v>100.5</v>
+        <v>100.13539868</v>
       </c>
       <c r="I13" t="n">
-        <v>100.1</v>
+        <v>100.5411595</v>
       </c>
       <c r="J13" t="n">
-        <v>103.2</v>
+        <v>101.3991896</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008-02</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.8</v>
+        <v>99.71326326000001</v>
       </c>
       <c r="C14" t="n">
-        <v>102.4</v>
+        <v>100.04502712</v>
       </c>
       <c r="D14" t="n">
-        <v>100.5</v>
+        <v>100.03024261</v>
       </c>
       <c r="E14" t="n">
-        <v>100.1</v>
+        <v>100.10526984</v>
       </c>
       <c r="F14" t="n">
-        <v>100.2</v>
+        <v>100.1560461</v>
       </c>
       <c r="G14" t="n">
-        <v>100.6</v>
+        <v>100.24975767</v>
       </c>
       <c r="H14" t="n">
-        <v>100.4</v>
+        <v>100.34795329</v>
       </c>
       <c r="I14" t="n">
-        <v>99.3</v>
+        <v>101.50148039</v>
       </c>
       <c r="J14" t="n">
-        <v>106.3</v>
+        <v>99.62899265</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.90000000000001</v>
+        <v>99.92150085999999</v>
       </c>
       <c r="C15" t="n">
-        <v>99.5</v>
+        <v>99.79866724</v>
       </c>
       <c r="D15" t="n">
-        <v>100.4</v>
+        <v>100.27065809</v>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>99.8110744</v>
       </c>
       <c r="F15" t="n">
-        <v>100.4</v>
+        <v>100.19350791</v>
       </c>
       <c r="G15" t="n">
-        <v>100.7</v>
+        <v>100.17302682</v>
       </c>
       <c r="H15" t="n">
-        <v>100.2</v>
+        <v>100.20224802</v>
       </c>
       <c r="I15" t="n">
-        <v>99.3</v>
+        <v>101.4999346</v>
       </c>
       <c r="J15" t="n">
-        <v>98.5</v>
+        <v>98.89566067</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.75444966000001</v>
+        <v>99.90945567999999</v>
       </c>
       <c r="C16" t="n">
-        <v>100.06848314</v>
+        <v>100.25748797</v>
       </c>
       <c r="D16" t="n">
-        <v>100.24273618</v>
+        <v>99.97002673</v>
       </c>
       <c r="E16" t="n">
-        <v>100.00951189</v>
+        <v>99.77119302</v>
       </c>
       <c r="F16" t="n">
-        <v>100.38000303</v>
+        <v>99.9338722</v>
       </c>
       <c r="G16" t="n">
-        <v>100.48578765</v>
+        <v>99.90055458</v>
       </c>
       <c r="H16" t="n">
-        <v>100.22208978</v>
+        <v>100.3684703</v>
       </c>
       <c r="I16" t="n">
-        <v>100.02654571</v>
+        <v>101.16811021</v>
       </c>
       <c r="J16" t="n">
-        <v>99.88630395</v>
+        <v>100.63659644</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008-05</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100</v>
+        <v>100.44670805</v>
       </c>
       <c r="C17" t="n">
-        <v>99.7</v>
+        <v>101.07115198</v>
       </c>
       <c r="D17" t="n">
-        <v>100.1</v>
+        <v>100.36229512</v>
       </c>
       <c r="E17" t="n">
-        <v>99.90000000000001</v>
+        <v>100.16088743</v>
       </c>
       <c r="F17" t="n">
-        <v>100.2</v>
+        <v>100.22916191</v>
       </c>
       <c r="G17" t="n">
-        <v>100.8</v>
+        <v>100.56552625</v>
       </c>
       <c r="H17" t="n">
-        <v>100.2</v>
+        <v>100.39419689</v>
       </c>
       <c r="I17" t="n">
-        <v>100.1</v>
+        <v>100.04391342</v>
       </c>
       <c r="J17" t="n">
-        <v>98.90000000000001</v>
+        <v>102.60371569</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.3</v>
+        <v>100.53971801</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>101.30151239</v>
       </c>
       <c r="D18" t="n">
-        <v>100.1</v>
+        <v>100.26173127</v>
       </c>
       <c r="E18" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1399725</v>
       </c>
       <c r="F18" t="n">
-        <v>100.2</v>
+        <v>100.11476931</v>
       </c>
       <c r="G18" t="n">
-        <v>101.6</v>
+        <v>100.21999656</v>
       </c>
       <c r="H18" t="n">
-        <v>100.2</v>
+        <v>100.18368992</v>
       </c>
       <c r="I18" t="n">
-        <v>99.8</v>
+        <v>99.08087469</v>
       </c>
       <c r="J18" t="n">
-        <v>99.09999999999999</v>
+        <v>103.78629523</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="D19" t="n">
         <v>100.2</v>
       </c>
       <c r="E19" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G19" t="n">
         <v>100.2</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>100.3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100.2</v>
       </c>
       <c r="I19" t="n">
         <v>99.7</v>
       </c>
       <c r="J19" t="n">
-        <v>99.90000000000001</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="C20" t="n">
         <v>100.1</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="E20" t="n">
-        <v>101.2</v>
+        <v>100.1</v>
       </c>
       <c r="F20" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="G20" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="H20" t="n">
         <v>100.2</v>
       </c>
       <c r="I20" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="J20" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C21" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="D21" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="G21" t="n">
-        <v>99.5</v>
+        <v>100.2</v>
       </c>
       <c r="H21" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="I21" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="J21" t="n">
-        <v>98.5</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>99.3</v>
+        <v>100.4</v>
       </c>
       <c r="D22" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="E22" t="n">
         <v>100</v>
       </c>
-      <c r="E22" t="n">
-        <v>99.8</v>
-      </c>
       <c r="F22" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G22" t="n">
         <v>99.90000000000001</v>
-      </c>
-      <c r="G22" t="n">
-        <v>98.7</v>
       </c>
       <c r="H22" t="n">
         <v>100.1</v>
       </c>
       <c r="I22" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="J22" t="n">
-        <v>98.59999999999999</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.37773142</v>
+        <v>100.0291989</v>
       </c>
       <c r="C23" t="n">
-        <v>99.94500024</v>
+        <v>100.46032925</v>
       </c>
       <c r="D23" t="n">
-        <v>99.95183082</v>
+        <v>100.38188736</v>
       </c>
       <c r="E23" t="n">
-        <v>99.69954894</v>
+        <v>100.21264901</v>
       </c>
       <c r="F23" t="n">
-        <v>99.90215779</v>
+        <v>100.08826995</v>
       </c>
       <c r="G23" t="n">
-        <v>98.81563447000001</v>
+        <v>100.03557529</v>
       </c>
       <c r="H23" t="n">
-        <v>100.04010166</v>
+        <v>100.17387301</v>
       </c>
       <c r="I23" t="n">
-        <v>100.09104742</v>
+        <v>99.63125273999999</v>
       </c>
       <c r="J23" t="n">
-        <v>100.7210954</v>
+        <v>101.24780921</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009-01</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.99366148</v>
+        <v>100.05058339</v>
       </c>
       <c r="C24" t="n">
-        <v>100.87472166</v>
+        <v>100.30529452</v>
       </c>
       <c r="D24" t="n">
-        <v>100.22813693</v>
+        <v>100.38544131</v>
       </c>
       <c r="E24" t="n">
-        <v>100.15152444</v>
+        <v>100.10867606</v>
       </c>
       <c r="F24" t="n">
-        <v>99.96361287000001</v>
+        <v>100.15949788</v>
       </c>
       <c r="G24" t="n">
-        <v>99.56093805</v>
+        <v>100.14746317</v>
       </c>
       <c r="H24" t="n">
-        <v>100.12236705</v>
+        <v>100.2232318</v>
       </c>
       <c r="I24" t="n">
-        <v>99.60315946</v>
+        <v>99.73125218</v>
       </c>
       <c r="J24" t="n">
-        <v>103.27762293</v>
+        <v>100.68749919</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.8</v>
+        <v>100.03266505</v>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>100.55315935</v>
       </c>
       <c r="D25" t="n">
-        <v>100.2</v>
+        <v>100.27494333</v>
       </c>
       <c r="E25" t="n">
-        <v>99.90000000000001</v>
+        <v>99.94662231</v>
       </c>
       <c r="F25" t="n">
-        <v>99.8</v>
+        <v>100.05957951</v>
       </c>
       <c r="G25" t="n">
-        <v>99.5</v>
+        <v>100.20141536</v>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>100.49174474</v>
       </c>
       <c r="I25" t="n">
-        <v>98.90000000000001</v>
+        <v>100.67609222</v>
       </c>
       <c r="J25" t="n">
-        <v>100.6</v>
+        <v>101.25636454</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.07457852</v>
+        <v>100.09366244</v>
       </c>
       <c r="C26" t="n">
-        <v>99.76123241000001</v>
+        <v>99.89216673999999</v>
       </c>
       <c r="D26" t="n">
-        <v>100.06599784</v>
+        <v>100.27233307</v>
       </c>
       <c r="E26" t="n">
-        <v>100.051073</v>
+        <v>100.06859969</v>
       </c>
       <c r="F26" t="n">
-        <v>99.83599156</v>
+        <v>100.01270732</v>
       </c>
       <c r="G26" t="n">
-        <v>99.62536629</v>
+        <v>100.19139146</v>
       </c>
       <c r="H26" t="n">
-        <v>100.0766056</v>
+        <v>100.08630794</v>
       </c>
       <c r="I26" t="n">
-        <v>100.02632271</v>
+        <v>100.87848987</v>
       </c>
       <c r="J26" t="n">
-        <v>99.40084880000001</v>
+        <v>99.21767719</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.8710688</v>
+        <v>99.77497095</v>
       </c>
       <c r="C27" t="n">
-        <v>99.71228366</v>
+        <v>100.20119361</v>
       </c>
       <c r="D27" t="n">
-        <v>100.10551888</v>
+        <v>100.16896916</v>
       </c>
       <c r="E27" t="n">
-        <v>99.9237675</v>
+        <v>99.74775984</v>
       </c>
       <c r="F27" t="n">
-        <v>99.90729893</v>
+        <v>100.19601822</v>
       </c>
       <c r="G27" t="n">
-        <v>99.67414209</v>
+        <v>100.28058185</v>
       </c>
       <c r="H27" t="n">
-        <v>100.00953622</v>
+        <v>100.02437951</v>
       </c>
       <c r="I27" t="n">
-        <v>100.17196194</v>
+        <v>100.88705353</v>
       </c>
       <c r="J27" t="n">
-        <v>99.28804257</v>
+        <v>100.30182125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.46944458</v>
+        <v>99.88370702</v>
       </c>
       <c r="C28" t="n">
-        <v>100.06937912</v>
+        <v>100.86984282</v>
       </c>
       <c r="D28" t="n">
-        <v>100.04892486</v>
+        <v>100.06071399</v>
       </c>
       <c r="E28" t="n">
-        <v>100.08871679</v>
+        <v>99.84657089</v>
       </c>
       <c r="F28" t="n">
-        <v>99.88525794</v>
+        <v>100.0356888</v>
       </c>
       <c r="G28" t="n">
-        <v>100.14808795</v>
+        <v>100.21171586</v>
       </c>
       <c r="H28" t="n">
-        <v>100.09153712</v>
+        <v>100.3262849</v>
       </c>
       <c r="I28" t="n">
-        <v>99.56766328</v>
+        <v>100.39527327</v>
       </c>
       <c r="J28" t="n">
-        <v>100.05456602</v>
+        <v>102.43369597</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.81008319</v>
+        <v>100.48290133</v>
       </c>
       <c r="C29" t="n">
-        <v>100.56405512</v>
+        <v>101.52443089</v>
       </c>
       <c r="D29" t="n">
-        <v>100.15890292</v>
+        <v>100.22271202</v>
       </c>
       <c r="E29" t="n">
-        <v>100.02745305</v>
+        <v>100.51335011</v>
       </c>
       <c r="F29" t="n">
-        <v>99.91313271999999</v>
+        <v>100.29737835</v>
       </c>
       <c r="G29" t="n">
-        <v>100.48908632</v>
+        <v>100.33269494</v>
       </c>
       <c r="H29" t="n">
-        <v>100.29745756</v>
+        <v>100.19668239</v>
       </c>
       <c r="I29" t="n">
-        <v>99.46251909999999</v>
+        <v>99.71666677</v>
       </c>
       <c r="J29" t="n">
-        <v>101.62364191</v>
+        <v>104.03737032</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.13302407</v>
+        <v>100.13743019</v>
       </c>
       <c r="C30" t="n">
-        <v>100.55881465</v>
+        <v>99.92811057999999</v>
       </c>
       <c r="D30" t="n">
-        <v>100.20548898</v>
+        <v>100.11557237</v>
       </c>
       <c r="E30" t="n">
-        <v>100.67236605</v>
+        <v>99.93875308</v>
       </c>
       <c r="F30" t="n">
-        <v>99.96616837000001</v>
+        <v>100.2045983</v>
       </c>
       <c r="G30" t="n">
-        <v>100.5669226</v>
+        <v>100.2188631</v>
       </c>
       <c r="H30" t="n">
-        <v>100.2304767</v>
+        <v>100.24732409</v>
       </c>
       <c r="I30" t="n">
-        <v>100.19790948</v>
+        <v>99.34253398</v>
       </c>
       <c r="J30" t="n">
-        <v>100.9996133</v>
+        <v>99.70122177</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.80474887</v>
+        <v>100.18356766</v>
       </c>
       <c r="C31" t="n">
-        <v>99.88088024</v>
+        <v>100.07299992</v>
       </c>
       <c r="D31" t="n">
-        <v>100.25508881</v>
+        <v>100.12186378</v>
       </c>
       <c r="E31" t="n">
-        <v>100.09310549</v>
+        <v>100.07345968</v>
       </c>
       <c r="F31" t="n">
-        <v>100.02639872</v>
+        <v>100.0580435</v>
       </c>
       <c r="G31" t="n">
-        <v>100.46042911</v>
+        <v>100.36618603</v>
       </c>
       <c r="H31" t="n">
-        <v>100.09398561</v>
+        <v>100.15996088</v>
       </c>
       <c r="I31" t="n">
-        <v>100.63628487</v>
+        <v>100.0044692</v>
       </c>
       <c r="J31" t="n">
-        <v>99.18431144</v>
+        <v>99.86801935</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.13104351</v>
+        <v>100.40089115</v>
       </c>
       <c r="C32" t="n">
-        <v>100.37070155</v>
+        <v>99.83697050000001</v>
       </c>
       <c r="D32" t="n">
-        <v>100.36903184</v>
+        <v>100.08257698</v>
       </c>
       <c r="E32" t="n">
-        <v>99.76795368000001</v>
+        <v>100.20520956</v>
       </c>
       <c r="F32" t="n">
-        <v>100.05468723</v>
+        <v>100.07272694</v>
       </c>
       <c r="G32" t="n">
-        <v>100.73477237</v>
+        <v>100.22576094</v>
       </c>
       <c r="H32" t="n">
-        <v>100.03837466</v>
+        <v>100.15152229</v>
       </c>
       <c r="I32" t="n">
-        <v>100.63086858</v>
+        <v>100.46024934</v>
       </c>
       <c r="J32" t="n">
-        <v>100.54417181</v>
+        <v>99.04269021</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.13157419</v>
+        <v>99.78903034</v>
       </c>
       <c r="C33" t="n">
-        <v>101.06987555</v>
+        <v>99.68459012</v>
       </c>
       <c r="D33" t="n">
-        <v>100.52383124</v>
+        <v>100.05981237</v>
       </c>
       <c r="E33" t="n">
-        <v>99.89367836</v>
+        <v>100.00540133</v>
       </c>
       <c r="F33" t="n">
-        <v>100.09077384</v>
+        <v>100.09961789</v>
       </c>
       <c r="G33" t="n">
-        <v>100.81197702</v>
+        <v>99.86533815999999</v>
       </c>
       <c r="H33" t="n">
-        <v>100.13250182</v>
+        <v>100.21433971</v>
       </c>
       <c r="I33" t="n">
-        <v>100.31451226</v>
+        <v>100.29811346</v>
       </c>
       <c r="J33" t="n">
-        <v>102.62332445</v>
+        <v>99.07031379</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.00049266</v>
+        <v>99.51453739999999</v>
       </c>
       <c r="C34" t="n">
-        <v>100.61756569</v>
+        <v>99.52858006</v>
       </c>
       <c r="D34" t="n">
-        <v>100.30765148</v>
+        <v>100.17688477</v>
       </c>
       <c r="E34" t="n">
-        <v>100.04189936</v>
+        <v>100.07679627</v>
       </c>
       <c r="F34" t="n">
-        <v>100.12096787</v>
+        <v>100.1561298</v>
       </c>
       <c r="G34" t="n">
-        <v>100.54029534</v>
+        <v>99.82941261000001</v>
       </c>
       <c r="H34" t="n">
-        <v>100.24688171</v>
+        <v>100.15408649</v>
       </c>
       <c r="I34" t="n">
-        <v>99.72062837</v>
+        <v>100.21437163</v>
       </c>
       <c r="J34" t="n">
-        <v>101.53710584</v>
+        <v>98.66460425</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.67008825</v>
+        <v>99.60678724</v>
       </c>
       <c r="C35" t="n">
-        <v>101.0657415</v>
+        <v>99.95112973000001</v>
       </c>
       <c r="D35" t="n">
-        <v>100.35929033</v>
+        <v>100.18532237</v>
       </c>
       <c r="E35" t="n">
-        <v>100.4462793</v>
+        <v>100.39555608</v>
       </c>
       <c r="F35" t="n">
-        <v>100.05347191</v>
+        <v>100.101066</v>
       </c>
       <c r="G35" t="n">
-        <v>100.15376602</v>
+        <v>100.16740138</v>
       </c>
       <c r="H35" t="n">
-        <v>100.14736856</v>
+        <v>100.12362981</v>
       </c>
       <c r="I35" t="n">
-        <v>98.99188881000001</v>
+        <v>99.66445897</v>
       </c>
       <c r="J35" t="n">
-        <v>102.91961772</v>
+        <v>99.74860381000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99.45204115999999</v>
+        <v>100.18657314</v>
       </c>
       <c r="C36" t="n">
-        <v>99.38331635</v>
+        <v>100.61699263</v>
       </c>
       <c r="D36" t="n">
-        <v>100.01074088</v>
+        <v>100.06294824</v>
       </c>
       <c r="E36" t="n">
-        <v>99.87136520999999</v>
+        <v>100.02200002</v>
       </c>
       <c r="F36" t="n">
-        <v>99.87132776999999</v>
+        <v>100.02036104</v>
       </c>
       <c r="G36" t="n">
-        <v>99.95924573000001</v>
+        <v>100.26839223</v>
       </c>
       <c r="H36" t="n">
-        <v>100.08284511</v>
+        <v>100.24412446</v>
       </c>
       <c r="I36" t="n">
-        <v>99.48214595</v>
+        <v>99.63687886</v>
       </c>
       <c r="J36" t="n">
-        <v>98.52113597</v>
+        <v>101.68852228</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.00074554</v>
+        <v>100.54001809</v>
       </c>
       <c r="C37" t="n">
-        <v>100.16115122</v>
+        <v>100.42925703</v>
       </c>
       <c r="D37" t="n">
-        <v>100.32618832</v>
+        <v>100.24134888</v>
       </c>
       <c r="E37" t="n">
-        <v>100.07935392</v>
+        <v>100.55593756</v>
       </c>
       <c r="F37" t="n">
-        <v>100.02879765</v>
+        <v>100.05608685</v>
       </c>
       <c r="G37" t="n">
-        <v>100.71549323</v>
+        <v>100.30945618</v>
       </c>
       <c r="H37" t="n">
-        <v>99.99035644999999</v>
+        <v>100.08464413</v>
       </c>
       <c r="I37" t="n">
-        <v>100.12325137</v>
+        <v>100.56610328</v>
       </c>
       <c r="J37" t="n">
-        <v>99.97449340999999</v>
+        <v>100.54634432</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.05304183</v>
+        <v>99.72061469</v>
       </c>
       <c r="C38" t="n">
-        <v>99.9657375</v>
+        <v>99.965035</v>
       </c>
       <c r="D38" t="n">
-        <v>100.45421262</v>
+        <v>100.15318064</v>
       </c>
       <c r="E38" t="n">
-        <v>99.99510151</v>
+        <v>100.67892638</v>
       </c>
       <c r="F38" t="n">
-        <v>100.05798971</v>
+        <v>100.11529131</v>
       </c>
       <c r="G38" t="n">
-        <v>100.21255159</v>
+        <v>100.25256374</v>
       </c>
       <c r="H38" t="n">
-        <v>100.08616152</v>
+        <v>99.95477606999999</v>
       </c>
       <c r="I38" t="n">
-        <v>100.17046493</v>
+        <v>100.6617938</v>
       </c>
       <c r="J38" t="n">
-        <v>99.57816712</v>
+        <v>99.4304647</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.7166588</v>
+        <v>99.78868344999999</v>
       </c>
       <c r="C39" t="n">
-        <v>99.47999779</v>
+        <v>99.97441037</v>
       </c>
       <c r="D39" t="n">
-        <v>100.23493263</v>
+        <v>100.22618532</v>
       </c>
       <c r="E39" t="n">
-        <v>99.94539688</v>
+        <v>99.79390257999999</v>
       </c>
       <c r="F39" t="n">
-        <v>100.07089607</v>
+        <v>100.06519133</v>
       </c>
       <c r="G39" t="n">
-        <v>99.92005191</v>
+        <v>100.30795521</v>
       </c>
       <c r="H39" t="n">
-        <v>100.13123031</v>
+        <v>100.0421146</v>
       </c>
       <c r="I39" t="n">
-        <v>100.00229122</v>
+        <v>100.74275597</v>
       </c>
       <c r="J39" t="n">
-        <v>98.46712592999999</v>
+        <v>99.63126626</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.97803616</v>
+        <v>100.22824442</v>
       </c>
       <c r="C40" t="n">
-        <v>100.33780454</v>
+        <v>100.29454067</v>
       </c>
       <c r="D40" t="n">
-        <v>100.13485682</v>
+        <v>99.99870509</v>
       </c>
       <c r="E40" t="n">
-        <v>100.26247687</v>
+        <v>99.86169934999999</v>
       </c>
       <c r="F40" t="n">
-        <v>99.94603033999999</v>
+        <v>100.13807197</v>
       </c>
       <c r="G40" t="n">
-        <v>99.93879196</v>
+        <v>100.28886712</v>
       </c>
       <c r="H40" t="n">
-        <v>100.0043617</v>
+        <v>99.97701863</v>
       </c>
       <c r="I40" t="n">
-        <v>99.4139454</v>
+        <v>100.44987744</v>
       </c>
       <c r="J40" t="n">
-        <v>101.097422</v>
+        <v>100.55581083</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.99569446</v>
+        <v>100.07162717</v>
       </c>
       <c r="C41" t="n">
-        <v>100.75923934</v>
+        <v>101.16347604</v>
       </c>
       <c r="D41" t="n">
-        <v>100.10415677</v>
+        <v>100.13434855</v>
       </c>
       <c r="E41" t="n">
-        <v>100.05878316</v>
+        <v>100.24670126</v>
       </c>
       <c r="F41" t="n">
-        <v>100.04507991</v>
+        <v>100.17998766</v>
       </c>
       <c r="G41" t="n">
-        <v>100.21614543</v>
+        <v>100.2262415</v>
       </c>
       <c r="H41" t="n">
-        <v>100.13251717</v>
+        <v>100.09709536</v>
       </c>
       <c r="I41" t="n">
-        <v>99.11930048000001</v>
+        <v>100.12121026</v>
       </c>
       <c r="J41" t="n">
-        <v>102.34838597</v>
+        <v>103.13085239</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.03059938</v>
+        <v>100.6988212</v>
       </c>
       <c r="C42" t="n">
-        <v>100.72127945</v>
+        <v>101.01765667</v>
       </c>
       <c r="D42" t="n">
-        <v>100.26082124</v>
+        <v>100.50306092</v>
       </c>
       <c r="E42" t="n">
-        <v>100.68182045</v>
+        <v>100.34410105</v>
       </c>
       <c r="F42" t="n">
-        <v>100.01428887</v>
+        <v>100.1685581</v>
       </c>
       <c r="G42" t="n">
-        <v>100.58644566</v>
+        <v>100.28413455</v>
       </c>
       <c r="H42" t="n">
-        <v>100.13539868</v>
+        <v>100.01791446</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5411595</v>
+        <v>99.4376693</v>
       </c>
       <c r="J42" t="n">
-        <v>101.3991896</v>
+        <v>102.46843529</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.00773321</v>
+        <v>99.73070690999999</v>
       </c>
       <c r="C43" t="n">
-        <v>100.64730589</v>
+        <v>99.00467819000001</v>
       </c>
       <c r="D43" t="n">
-        <v>100.45510747</v>
+        <v>99.99103468</v>
       </c>
       <c r="E43" t="n">
-        <v>100.09193185</v>
+        <v>100.1298709</v>
       </c>
       <c r="F43" t="n">
-        <v>100.12044384</v>
+        <v>100.13149704</v>
       </c>
       <c r="G43" t="n">
-        <v>101.18938814</v>
+        <v>100.28196392</v>
       </c>
       <c r="H43" t="n">
-        <v>100.15516696</v>
+        <v>99.9683926</v>
       </c>
       <c r="I43" t="n">
-        <v>100.99173894</v>
+        <v>100.09204222</v>
       </c>
       <c r="J43" t="n">
-        <v>100.90581688</v>
+        <v>96.98791782000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.09450033</v>
+        <v>99.55801257</v>
       </c>
       <c r="C44" t="n">
-        <v>101.28171239</v>
+        <v>100.07465264</v>
       </c>
       <c r="D44" t="n">
-        <v>100.64305404</v>
+        <v>100.09217506</v>
       </c>
       <c r="E44" t="n">
-        <v>99.66679886</v>
+        <v>100.2338437</v>
       </c>
       <c r="F44" t="n">
-        <v>100.29013522</v>
+        <v>100.14947968</v>
       </c>
       <c r="G44" t="n">
-        <v>102.18921589</v>
+        <v>100.14298878</v>
       </c>
       <c r="H44" t="n">
-        <v>100.18078917</v>
+        <v>99.98357046</v>
       </c>
       <c r="I44" t="n">
-        <v>101.40248198</v>
+        <v>100.59930027</v>
       </c>
       <c r="J44" t="n">
-        <v>102.23563254</v>
+        <v>100.01704162</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.10674269</v>
+        <v>99.68156583</v>
       </c>
       <c r="C45" t="n">
-        <v>100.55453203</v>
+        <v>99.49398324000001</v>
       </c>
       <c r="D45" t="n">
-        <v>100.37450446</v>
+        <v>100.15355612</v>
       </c>
       <c r="E45" t="n">
-        <v>99.82837504</v>
+        <v>100.0018662</v>
       </c>
       <c r="F45" t="n">
-        <v>100.10087091</v>
+        <v>100.07025757</v>
       </c>
       <c r="G45" t="n">
-        <v>101.12990541</v>
+        <v>100.06812848</v>
       </c>
       <c r="H45" t="n">
-        <v>100.2828382</v>
+        <v>99.91202942</v>
       </c>
       <c r="I45" t="n">
-        <v>100.71949279</v>
+        <v>100.18314779</v>
       </c>
       <c r="J45" t="n">
-        <v>100.78705145</v>
+        <v>98.48359357</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.44670805</v>
+        <v>100.02188332</v>
       </c>
       <c r="C46" t="n">
-        <v>101.07115198</v>
+        <v>100.08651692</v>
       </c>
       <c r="D46" t="n">
-        <v>100.36229512</v>
+        <v>100.11790206</v>
       </c>
       <c r="E46" t="n">
-        <v>100.16088743</v>
+        <v>100.02655412</v>
       </c>
       <c r="F46" t="n">
-        <v>100.22916191</v>
+        <v>100.1711363</v>
       </c>
       <c r="G46" t="n">
-        <v>100.56552625</v>
+        <v>100.07275631</v>
       </c>
       <c r="H46" t="n">
-        <v>100.39419689</v>
+        <v>99.91448233</v>
       </c>
       <c r="I46" t="n">
-        <v>100.04391342</v>
+        <v>100.09800647</v>
       </c>
       <c r="J46" t="n">
-        <v>102.60371569</v>
+        <v>100.12827488</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.53971801</v>
+        <v>100.20859294</v>
       </c>
       <c r="C47" t="n">
-        <v>101.30151239</v>
+        <v>100.049252</v>
       </c>
       <c r="D47" t="n">
-        <v>100.26173127</v>
+        <v>100.02573021</v>
       </c>
       <c r="E47" t="n">
-        <v>100.1399725</v>
+        <v>100.40584834</v>
       </c>
       <c r="F47" t="n">
-        <v>100.11476931</v>
+        <v>100.11193651</v>
       </c>
       <c r="G47" t="n">
-        <v>100.21999656</v>
+        <v>100.12587836</v>
       </c>
       <c r="H47" t="n">
-        <v>100.18368992</v>
+        <v>99.97293261999999</v>
       </c>
       <c r="I47" t="n">
-        <v>99.08087469</v>
+        <v>99.56531731</v>
       </c>
       <c r="J47" t="n">
-        <v>103.78629523</v>
+        <v>99.96658370999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.90000000000001</v>
+        <v>100.18163026</v>
       </c>
       <c r="C48" t="n">
-        <v>99.7</v>
+        <v>100.5799426</v>
       </c>
       <c r="D48" t="n">
-        <v>100.2</v>
+        <v>100.08989958</v>
       </c>
       <c r="E48" t="n">
-        <v>100</v>
+        <v>100.00084958</v>
       </c>
       <c r="F48" t="n">
-        <v>100.1</v>
+        <v>100.03564631</v>
       </c>
       <c r="G48" t="n">
-        <v>100.2</v>
+        <v>100.16368587</v>
       </c>
       <c r="H48" t="n">
-        <v>100.3</v>
+        <v>99.92947688</v>
       </c>
       <c r="I48" t="n">
-        <v>99.7</v>
+        <v>99.62572344</v>
       </c>
       <c r="J48" t="n">
-        <v>98.90000000000001</v>
+        <v>101.64020709</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.4</v>
+        <v>100.30600286</v>
       </c>
       <c r="C49" t="n">
-        <v>100.1</v>
+        <v>100.79224823</v>
       </c>
       <c r="D49" t="n">
-        <v>100.2</v>
+        <v>100.12593685</v>
       </c>
       <c r="E49" t="n">
-        <v>100.1</v>
+        <v>100.78307724</v>
       </c>
       <c r="F49" t="n">
-        <v>100.2</v>
+        <v>100.02421966</v>
       </c>
       <c r="G49" t="n">
-        <v>100.5</v>
+        <v>100.22268233</v>
       </c>
       <c r="H49" t="n">
-        <v>100.2</v>
+        <v>99.91441158000001</v>
       </c>
       <c r="I49" t="n">
-        <v>100.5</v>
+        <v>100.75876951</v>
       </c>
       <c r="J49" t="n">
-        <v>99.5</v>
+        <v>101.67138916</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.2</v>
+        <v>99.6361</v>
       </c>
       <c r="C50" t="n">
-        <v>100.1</v>
+        <v>99.96759414</v>
       </c>
       <c r="D50" t="n">
-        <v>100.3</v>
+        <v>100.09918575</v>
       </c>
       <c r="E50" t="n">
-        <v>100</v>
+        <v>100.17047595</v>
       </c>
       <c r="F50" t="n">
-        <v>100.2</v>
+        <v>100.10877469</v>
       </c>
       <c r="G50" t="n">
-        <v>100.2</v>
+        <v>100.0810939</v>
       </c>
       <c r="H50" t="n">
-        <v>100.3</v>
+        <v>100.06792056</v>
       </c>
       <c r="I50" t="n">
-        <v>100.5</v>
+        <v>100.95548764</v>
       </c>
       <c r="J50" t="n">
-        <v>99.8</v>
+        <v>99.64620733</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.90000000000001</v>
+        <v>99.34612951</v>
       </c>
       <c r="C51" t="n">
-        <v>100.4</v>
+        <v>99.82104671</v>
       </c>
       <c r="D51" t="n">
-        <v>100.4</v>
+        <v>100.20061408</v>
       </c>
       <c r="E51" t="n">
-        <v>100</v>
+        <v>99.72887188999999</v>
       </c>
       <c r="F51" t="n">
-        <v>100.1</v>
+        <v>100.16984581</v>
       </c>
       <c r="G51" t="n">
-        <v>99.90000000000001</v>
+        <v>99.95171578999999</v>
       </c>
       <c r="H51" t="n">
-        <v>100.1</v>
+        <v>99.88685814999999</v>
       </c>
       <c r="I51" t="n">
-        <v>100</v>
+        <v>100.76340665</v>
       </c>
       <c r="J51" t="n">
-        <v>101.2</v>
+        <v>99.53329499</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.0291989</v>
+        <v>99.66791168</v>
       </c>
       <c r="C52" t="n">
-        <v>100.46032925</v>
+        <v>100.34227282</v>
       </c>
       <c r="D52" t="n">
-        <v>100.38188736</v>
+        <v>100.26404066</v>
       </c>
       <c r="E52" t="n">
-        <v>100.21264901</v>
+        <v>99.8852404</v>
       </c>
       <c r="F52" t="n">
-        <v>100.08826995</v>
+        <v>100.16241731</v>
       </c>
       <c r="G52" t="n">
-        <v>100.03557529</v>
+        <v>99.93676721</v>
       </c>
       <c r="H52" t="n">
-        <v>100.17387301</v>
+        <v>99.91541787</v>
       </c>
       <c r="I52" t="n">
-        <v>99.63125273999999</v>
+        <v>100.25893657</v>
       </c>
       <c r="J52" t="n">
-        <v>101.24780921</v>
+        <v>101.01785004</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100.05058339</v>
+        <v>100.28537701</v>
       </c>
       <c r="C53" t="n">
-        <v>100.30529452</v>
+        <v>100.88676972</v>
       </c>
       <c r="D53" t="n">
-        <v>100.38544131</v>
+        <v>100.42188085</v>
       </c>
       <c r="E53" t="n">
-        <v>100.10867606</v>
+        <v>100.40168075</v>
       </c>
       <c r="F53" t="n">
-        <v>100.15949788</v>
+        <v>100.22194686</v>
       </c>
       <c r="G53" t="n">
-        <v>100.14746317</v>
+        <v>100.28520538</v>
       </c>
       <c r="H53" t="n">
-        <v>100.2232318</v>
+        <v>99.84293277</v>
       </c>
       <c r="I53" t="n">
-        <v>99.73125218</v>
+        <v>99.88810597</v>
       </c>
       <c r="J53" t="n">
-        <v>100.68749919</v>
+        <v>102.12994925</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>100.03266505</v>
+        <v>100.1790547</v>
       </c>
       <c r="C54" t="n">
-        <v>100.55315935</v>
+        <v>100.45699812</v>
       </c>
       <c r="D54" t="n">
-        <v>100.27494333</v>
+        <v>100.13024945</v>
       </c>
       <c r="E54" t="n">
-        <v>99.94662231</v>
+        <v>99.97374026999999</v>
       </c>
       <c r="F54" t="n">
-        <v>100.05957951</v>
+        <v>100.09812157</v>
       </c>
       <c r="G54" t="n">
-        <v>100.20141536</v>
+        <v>100.21985809</v>
       </c>
       <c r="H54" t="n">
-        <v>100.49174474</v>
+        <v>99.93750015000001</v>
       </c>
       <c r="I54" t="n">
-        <v>100.67609222</v>
+        <v>99.43696656</v>
       </c>
       <c r="J54" t="n">
-        <v>101.25636454</v>
+        <v>101.24472937</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>99.71326326000001</v>
+        <v>99.71995953</v>
       </c>
       <c r="C55" t="n">
-        <v>100.04502712</v>
+        <v>99.42094407</v>
       </c>
       <c r="D55" t="n">
-        <v>100.03024261</v>
+        <v>100.01005906</v>
       </c>
       <c r="E55" t="n">
-        <v>100.10526984</v>
+        <v>99.87365246</v>
       </c>
       <c r="F55" t="n">
-        <v>100.1560461</v>
+        <v>99.99588448999999</v>
       </c>
       <c r="G55" t="n">
-        <v>100.24975767</v>
+        <v>100.2495732</v>
       </c>
       <c r="H55" t="n">
-        <v>100.34795329</v>
+        <v>100.05829303</v>
       </c>
       <c r="I55" t="n">
-        <v>101.50148039</v>
+        <v>100.36326079</v>
       </c>
       <c r="J55" t="n">
-        <v>99.62899265</v>
+        <v>98.22689076</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>99.92150085999999</v>
+        <v>99.94854599</v>
       </c>
       <c r="C56" t="n">
-        <v>99.79866724</v>
+        <v>99.63072542</v>
       </c>
       <c r="D56" t="n">
-        <v>100.27065809</v>
+        <v>100.04132282</v>
       </c>
       <c r="E56" t="n">
-        <v>99.8110744</v>
+        <v>100.08314465</v>
       </c>
       <c r="F56" t="n">
-        <v>100.19350791</v>
+        <v>100.16038909</v>
       </c>
       <c r="G56" t="n">
-        <v>100.17302682</v>
+        <v>100.11753644</v>
       </c>
       <c r="H56" t="n">
-        <v>100.20224802</v>
+        <v>100.02272678</v>
       </c>
       <c r="I56" t="n">
-        <v>101.4999346</v>
+        <v>100.59960634</v>
       </c>
       <c r="J56" t="n">
-        <v>98.89566067</v>
+        <v>98.67502591</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.90945567999999</v>
+        <v>100.17306176</v>
       </c>
       <c r="C57" t="n">
-        <v>100.25748797</v>
+        <v>100.17764128</v>
       </c>
       <c r="D57" t="n">
-        <v>99.97002673</v>
+        <v>100.05951353</v>
       </c>
       <c r="E57" t="n">
-        <v>99.77119302</v>
+        <v>99.95594323</v>
       </c>
       <c r="F57" t="n">
-        <v>99.9338722</v>
+        <v>100.08358046</v>
       </c>
       <c r="G57" t="n">
-        <v>99.90055458</v>
+        <v>99.9934803</v>
       </c>
       <c r="H57" t="n">
-        <v>100.3684703</v>
+        <v>99.91774617</v>
       </c>
       <c r="I57" t="n">
-        <v>101.16811021</v>
+        <v>100.33276721</v>
       </c>
       <c r="J57" t="n">
-        <v>100.63659644</v>
+        <v>100.3910404</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>100.48290133</v>
+        <v>100.10901996</v>
       </c>
       <c r="C58" t="n">
-        <v>101.52443089</v>
+        <v>99.90609502</v>
       </c>
       <c r="D58" t="n">
-        <v>100.22271202</v>
+        <v>99.99894506</v>
       </c>
       <c r="E58" t="n">
-        <v>100.51335011</v>
+        <v>100.04432905</v>
       </c>
       <c r="F58" t="n">
-        <v>100.29737835</v>
+        <v>100.0614559</v>
       </c>
       <c r="G58" t="n">
-        <v>100.33269494</v>
+        <v>99.87814691</v>
       </c>
       <c r="H58" t="n">
-        <v>100.19668239</v>
+        <v>99.95421552000001</v>
       </c>
       <c r="I58" t="n">
-        <v>99.71666677</v>
+        <v>99.97164490999999</v>
       </c>
       <c r="J58" t="n">
-        <v>104.03737032</v>
+        <v>99.75035407</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>100.13743019</v>
+        <v>100.1629089</v>
       </c>
       <c r="C59" t="n">
-        <v>99.92811057999999</v>
+        <v>100.04564472</v>
       </c>
       <c r="D59" t="n">
-        <v>100.11557237</v>
+        <v>100.08639293</v>
       </c>
       <c r="E59" t="n">
-        <v>99.93875308</v>
+        <v>100.27727777</v>
       </c>
       <c r="F59" t="n">
-        <v>100.2045983</v>
+        <v>100.07621121</v>
       </c>
       <c r="G59" t="n">
-        <v>100.2188631</v>
+        <v>100.04238886</v>
       </c>
       <c r="H59" t="n">
-        <v>100.24732409</v>
+        <v>99.99681</v>
       </c>
       <c r="I59" t="n">
-        <v>99.34253398</v>
+        <v>99.60709022</v>
       </c>
       <c r="J59" t="n">
-        <v>99.70122177</v>
+        <v>100.03413442</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>100.18356766</v>
+        <v>99.68380449999999</v>
       </c>
       <c r="C60" t="n">
-        <v>100.07299992</v>
+        <v>100.3009732</v>
       </c>
       <c r="D60" t="n">
-        <v>100.12186378</v>
+        <v>100.23387561</v>
       </c>
       <c r="E60" t="n">
-        <v>100.07345968</v>
+        <v>100.00970904</v>
       </c>
       <c r="F60" t="n">
-        <v>100.0580435</v>
+        <v>99.98803656</v>
       </c>
       <c r="G60" t="n">
-        <v>100.36618603</v>
+        <v>99.97589856</v>
       </c>
       <c r="H60" t="n">
-        <v>100.15996088</v>
+        <v>100.01339345</v>
       </c>
       <c r="I60" t="n">
-        <v>100.0044692</v>
+        <v>99.555909</v>
       </c>
       <c r="J60" t="n">
-        <v>99.86801935</v>
+        <v>101.02771236</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>100.40089115</v>
+        <v>99.74255547</v>
       </c>
       <c r="C61" t="n">
-        <v>99.83697050000001</v>
+        <v>100.36334649</v>
       </c>
       <c r="D61" t="n">
-        <v>100.08257698</v>
+        <v>100.06136436</v>
       </c>
       <c r="E61" t="n">
-        <v>100.20520956</v>
+        <v>100.49449906</v>
       </c>
       <c r="F61" t="n">
-        <v>100.07272694</v>
+        <v>100.10187693</v>
       </c>
       <c r="G61" t="n">
-        <v>100.22576094</v>
+        <v>99.98061905</v>
       </c>
       <c r="H61" t="n">
-        <v>100.15152229</v>
+        <v>99.96506230999999</v>
       </c>
       <c r="I61" t="n">
-        <v>100.46024934</v>
+        <v>100.55578485</v>
       </c>
       <c r="J61" t="n">
-        <v>99.04269021</v>
+        <v>100.84056147</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>99.78903034</v>
+        <v>100.00549055</v>
       </c>
       <c r="C62" t="n">
-        <v>99.68459012</v>
+        <v>99.68763339</v>
       </c>
       <c r="D62" t="n">
-        <v>100.05981237</v>
+        <v>100.20326482</v>
       </c>
       <c r="E62" t="n">
-        <v>100.00540133</v>
+        <v>99.96085619</v>
       </c>
       <c r="F62" t="n">
-        <v>100.09961789</v>
+        <v>100.03494866</v>
       </c>
       <c r="G62" t="n">
-        <v>99.86533815999999</v>
+        <v>99.95925068</v>
       </c>
       <c r="H62" t="n">
-        <v>100.21433971</v>
+        <v>100.01572221</v>
       </c>
       <c r="I62" t="n">
-        <v>100.29811346</v>
+        <v>100.60653266</v>
       </c>
       <c r="J62" t="n">
-        <v>99.07031379</v>
+        <v>98.93892707000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>99.51453739999999</v>
+        <v>99.76880020999999</v>
       </c>
       <c r="C63" t="n">
-        <v>99.52858006</v>
+        <v>99.95922159</v>
       </c>
       <c r="D63" t="n">
-        <v>100.17688477</v>
+        <v>100.50438308</v>
       </c>
       <c r="E63" t="n">
-        <v>100.07679627</v>
+        <v>99.88042828</v>
       </c>
       <c r="F63" t="n">
-        <v>100.1561298</v>
+        <v>100.01741999</v>
       </c>
       <c r="G63" t="n">
-        <v>99.82941261000001</v>
+        <v>100.01645333</v>
       </c>
       <c r="H63" t="n">
-        <v>100.15408649</v>
+        <v>100.02531179</v>
       </c>
       <c r="I63" t="n">
-        <v>100.21437163</v>
+        <v>100.59892885</v>
       </c>
       <c r="J63" t="n">
-        <v>98.66460425</v>
+        <v>99.69291463</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>99.60678724</v>
+        <v>99.77328376</v>
       </c>
       <c r="C64" t="n">
-        <v>99.95112973000001</v>
+        <v>100.50271585</v>
       </c>
       <c r="D64" t="n">
-        <v>100.18532237</v>
+        <v>100.23126695</v>
       </c>
       <c r="E64" t="n">
-        <v>100.39555608</v>
+        <v>99.92818516</v>
       </c>
       <c r="F64" t="n">
-        <v>100.101066</v>
+        <v>100.03395727</v>
       </c>
       <c r="G64" t="n">
-        <v>100.16740138</v>
+        <v>100.00462358</v>
       </c>
       <c r="H64" t="n">
-        <v>100.12362981</v>
+        <v>99.96573284</v>
       </c>
       <c r="I64" t="n">
-        <v>99.66445897</v>
+        <v>100.27876193</v>
       </c>
       <c r="J64" t="n">
-        <v>99.74860381000001</v>
+        <v>101.40599826</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.18657314</v>
+        <v>99.30147694</v>
       </c>
       <c r="C65" t="n">
-        <v>100.61699263</v>
+        <v>100.21724374</v>
       </c>
       <c r="D65" t="n">
-        <v>100.06294824</v>
+        <v>100.56459207</v>
       </c>
       <c r="E65" t="n">
-        <v>100.02200002</v>
+        <v>100.25521384</v>
       </c>
       <c r="F65" t="n">
-        <v>100.02036104</v>
+        <v>100.14668188</v>
       </c>
       <c r="G65" t="n">
-        <v>100.26839223</v>
+        <v>100.04007683</v>
       </c>
       <c r="H65" t="n">
-        <v>100.24412446</v>
+        <v>99.96087632</v>
       </c>
       <c r="I65" t="n">
-        <v>99.63687886</v>
+        <v>100.02500183</v>
       </c>
       <c r="J65" t="n">
-        <v>101.68852228</v>
+        <v>100.55401686</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>100.54001809</v>
+        <v>100.43729249</v>
       </c>
       <c r="C66" t="n">
-        <v>100.42925703</v>
+        <v>101.02757376</v>
       </c>
       <c r="D66" t="n">
-        <v>100.24134888</v>
+        <v>100.63906226</v>
       </c>
       <c r="E66" t="n">
-        <v>100.55593756</v>
+        <v>100.53602573</v>
       </c>
       <c r="F66" t="n">
-        <v>100.05608685</v>
+        <v>100.29847983</v>
       </c>
       <c r="G66" t="n">
-        <v>100.30945618</v>
+        <v>100.02915702</v>
       </c>
       <c r="H66" t="n">
-        <v>100.08464413</v>
+        <v>99.82809396</v>
       </c>
       <c r="I66" t="n">
-        <v>100.56610328</v>
+        <v>99.43362691999999</v>
       </c>
       <c r="J66" t="n">
-        <v>100.54634432</v>
+        <v>102.6037959</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>100.09366244</v>
+        <v>100.06800475</v>
       </c>
       <c r="C67" t="n">
-        <v>99.89216673999999</v>
+        <v>99.43966983</v>
       </c>
       <c r="D67" t="n">
-        <v>100.27233307</v>
+        <v>99.69778076999999</v>
       </c>
       <c r="E67" t="n">
-        <v>100.06859969</v>
+        <v>99.80281461</v>
       </c>
       <c r="F67" t="n">
-        <v>100.01270732</v>
+        <v>99.83485829</v>
       </c>
       <c r="G67" t="n">
-        <v>100.19139146</v>
+        <v>99.9668286</v>
       </c>
       <c r="H67" t="n">
-        <v>100.08630794</v>
+        <v>100.0011197</v>
       </c>
       <c r="I67" t="n">
-        <v>100.87848987</v>
+        <v>100.27976995</v>
       </c>
       <c r="J67" t="n">
-        <v>99.21767719</v>
+        <v>98.50345495000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>99.77497095</v>
+        <v>99.85415273</v>
       </c>
       <c r="C68" t="n">
-        <v>100.20119361</v>
+        <v>99.73275185</v>
       </c>
       <c r="D68" t="n">
-        <v>100.16896916</v>
+        <v>100.19850421</v>
       </c>
       <c r="E68" t="n">
-        <v>99.74775984</v>
+        <v>100.20425436</v>
       </c>
       <c r="F68" t="n">
-        <v>100.19601822</v>
+        <v>100.03549923</v>
       </c>
       <c r="G68" t="n">
-        <v>100.28058185</v>
+        <v>99.8927922</v>
       </c>
       <c r="H68" t="n">
-        <v>100.02437951</v>
+        <v>99.98474324999999</v>
       </c>
       <c r="I68" t="n">
-        <v>100.88705353</v>
+        <v>100.51358194</v>
       </c>
       <c r="J68" t="n">
-        <v>100.30182125</v>
+        <v>99.09639004</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>99.88370702</v>
+        <v>100.49761549</v>
       </c>
       <c r="C69" t="n">
-        <v>100.86984282</v>
+        <v>99.87975754</v>
       </c>
       <c r="D69" t="n">
-        <v>100.06071399</v>
+        <v>100.08964735</v>
       </c>
       <c r="E69" t="n">
-        <v>99.84657089</v>
+        <v>100.03985967</v>
       </c>
       <c r="F69" t="n">
-        <v>100.0356888</v>
+        <v>100.03068522</v>
       </c>
       <c r="G69" t="n">
-        <v>100.21171586</v>
+        <v>99.92468400999999</v>
       </c>
       <c r="H69" t="n">
-        <v>100.3262849</v>
+        <v>102.21435013</v>
       </c>
       <c r="I69" t="n">
-        <v>100.39527327</v>
+        <v>100.40695028</v>
       </c>
       <c r="J69" t="n">
-        <v>102.43369597</v>
+        <v>99.17405742</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2013-01</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>100.07162717</v>
+        <v>99.88642373</v>
       </c>
       <c r="C70" t="n">
-        <v>101.16347604</v>
+        <v>100.08136045</v>
       </c>
       <c r="D70" t="n">
-        <v>100.13434855</v>
+        <v>100.23230185</v>
       </c>
       <c r="E70" t="n">
-        <v>100.24670126</v>
+        <v>100.07095385</v>
       </c>
       <c r="F70" t="n">
-        <v>100.17998766</v>
+        <v>100.0188184</v>
       </c>
       <c r="G70" t="n">
-        <v>100.2262415</v>
+        <v>99.88067112</v>
       </c>
       <c r="H70" t="n">
-        <v>100.09709536</v>
+        <v>102.01301083</v>
       </c>
       <c r="I70" t="n">
-        <v>100.12121026</v>
+        <v>100.18503474</v>
       </c>
       <c r="J70" t="n">
-        <v>103.13085239</v>
+        <v>99.97489976</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>100.6988212</v>
+        <v>99.84649208</v>
       </c>
       <c r="C71" t="n">
-        <v>101.01765667</v>
+        <v>100.30229738</v>
       </c>
       <c r="D71" t="n">
-        <v>100.50306092</v>
+        <v>100.07555501</v>
       </c>
       <c r="E71" t="n">
-        <v>100.34410105</v>
+        <v>100.34121562</v>
       </c>
       <c r="F71" t="n">
-        <v>100.1685581</v>
+        <v>99.98661011</v>
       </c>
       <c r="G71" t="n">
-        <v>100.28413455</v>
+        <v>99.87812665</v>
       </c>
       <c r="H71" t="n">
-        <v>100.01791446</v>
+        <v>100.07072802</v>
       </c>
       <c r="I71" t="n">
-        <v>99.4376693</v>
+        <v>99.60411338999999</v>
       </c>
       <c r="J71" t="n">
-        <v>102.46843529</v>
+        <v>100.95455817</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>99.73070690999999</v>
+        <v>99.38486761</v>
       </c>
       <c r="C72" t="n">
-        <v>99.00467819000001</v>
+        <v>100.59152553</v>
       </c>
       <c r="D72" t="n">
-        <v>99.99103468</v>
+        <v>100.14356421</v>
       </c>
       <c r="E72" t="n">
-        <v>100.1298709</v>
+        <v>100.03771459</v>
       </c>
       <c r="F72" t="n">
-        <v>100.13149704</v>
+        <v>99.99039126</v>
       </c>
       <c r="G72" t="n">
-        <v>100.28196392</v>
+        <v>99.91292702</v>
       </c>
       <c r="H72" t="n">
-        <v>99.9683926</v>
+        <v>100.05552173</v>
       </c>
       <c r="I72" t="n">
-        <v>100.09204222</v>
+        <v>99.52234392</v>
       </c>
       <c r="J72" t="n">
-        <v>96.98791782000001</v>
+        <v>101.9894862</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>99.55801257</v>
+        <v>99.64586810999999</v>
       </c>
       <c r="C73" t="n">
-        <v>100.07465264</v>
+        <v>100.0505089</v>
       </c>
       <c r="D73" t="n">
-        <v>100.09217506</v>
+        <v>100.25410035</v>
       </c>
       <c r="E73" t="n">
-        <v>100.2338437</v>
+        <v>100.55654318</v>
       </c>
       <c r="F73" t="n">
-        <v>100.14947968</v>
+        <v>100.03537778</v>
       </c>
       <c r="G73" t="n">
-        <v>100.14298878</v>
+        <v>99.99691188</v>
       </c>
       <c r="H73" t="n">
-        <v>99.98357046</v>
+        <v>99.99108483000001</v>
       </c>
       <c r="I73" t="n">
-        <v>100.59930027</v>
+        <v>100.50766878</v>
       </c>
       <c r="J73" t="n">
-        <v>100.01704162</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>2013-05</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>99.68156583</v>
-      </c>
-      <c r="C74" t="n">
-        <v>99.49398324000001</v>
-      </c>
-      <c r="D74" t="n">
-        <v>100.15355612</v>
-      </c>
-      <c r="E74" t="n">
-        <v>100.0018662</v>
-      </c>
-      <c r="F74" t="n">
-        <v>100.07025757</v>
-      </c>
-      <c r="G74" t="n">
-        <v>100.06812848</v>
-      </c>
-      <c r="H74" t="n">
-        <v>99.91202942</v>
-      </c>
-      <c r="I74" t="n">
-        <v>100.18314779</v>
-      </c>
-      <c r="J74" t="n">
-        <v>98.48359357</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>2013-06</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>100.02188332</v>
-      </c>
-      <c r="C75" t="n">
-        <v>100.08651692</v>
-      </c>
-      <c r="D75" t="n">
-        <v>100.11790206</v>
-      </c>
-      <c r="E75" t="n">
-        <v>100.02655412</v>
-      </c>
-      <c r="F75" t="n">
-        <v>100.1711363</v>
-      </c>
-      <c r="G75" t="n">
-        <v>100.07275631</v>
-      </c>
-      <c r="H75" t="n">
-        <v>99.91448233</v>
-      </c>
-      <c r="I75" t="n">
-        <v>100.09800647</v>
-      </c>
-      <c r="J75" t="n">
-        <v>100.12827488</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>2013-07</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>100.20859294</v>
-      </c>
-      <c r="C76" t="n">
-        <v>100.049252</v>
-      </c>
-      <c r="D76" t="n">
-        <v>100.02573021</v>
-      </c>
-      <c r="E76" t="n">
-        <v>100.40584834</v>
-      </c>
-      <c r="F76" t="n">
-        <v>100.11193651</v>
-      </c>
-      <c r="G76" t="n">
-        <v>100.12587836</v>
-      </c>
-      <c r="H76" t="n">
-        <v>99.97293261999999</v>
-      </c>
-      <c r="I76" t="n">
-        <v>99.56531731</v>
-      </c>
-      <c r="J76" t="n">
-        <v>99.96658370999999</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>2013-08</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>100.18163026</v>
-      </c>
-      <c r="C77" t="n">
-        <v>100.5799426</v>
-      </c>
-      <c r="D77" t="n">
-        <v>100.08989958</v>
-      </c>
-      <c r="E77" t="n">
-        <v>100.00084958</v>
-      </c>
-      <c r="F77" t="n">
-        <v>100.03564631</v>
-      </c>
-      <c r="G77" t="n">
-        <v>100.16368587</v>
-      </c>
-      <c r="H77" t="n">
-        <v>99.92947688</v>
-      </c>
-      <c r="I77" t="n">
-        <v>99.62572344</v>
-      </c>
-      <c r="J77" t="n">
-        <v>101.64020709</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>2013-09</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>100.30600286</v>
-      </c>
-      <c r="C78" t="n">
-        <v>100.79224823</v>
-      </c>
-      <c r="D78" t="n">
-        <v>100.12593685</v>
-      </c>
-      <c r="E78" t="n">
-        <v>100.78307724</v>
-      </c>
-      <c r="F78" t="n">
-        <v>100.02421966</v>
-      </c>
-      <c r="G78" t="n">
-        <v>100.22268233</v>
-      </c>
-      <c r="H78" t="n">
-        <v>99.91441158000001</v>
-      </c>
-      <c r="I78" t="n">
-        <v>100.75876951</v>
-      </c>
-      <c r="J78" t="n">
-        <v>101.67138916</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>2013-10</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>99.72061469</v>
-      </c>
-      <c r="C79" t="n">
-        <v>99.965035</v>
-      </c>
-      <c r="D79" t="n">
-        <v>100.15318064</v>
-      </c>
-      <c r="E79" t="n">
-        <v>100.67892638</v>
-      </c>
-      <c r="F79" t="n">
-        <v>100.11529131</v>
-      </c>
-      <c r="G79" t="n">
-        <v>100.25256374</v>
-      </c>
-      <c r="H79" t="n">
-        <v>99.95477606999999</v>
-      </c>
-      <c r="I79" t="n">
-        <v>100.6617938</v>
-      </c>
-      <c r="J79" t="n">
-        <v>99.4304647</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>2013-11</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>99.78868344999999</v>
-      </c>
-      <c r="C80" t="n">
-        <v>99.97441037</v>
-      </c>
-      <c r="D80" t="n">
-        <v>100.22618532</v>
-      </c>
-      <c r="E80" t="n">
-        <v>99.79390257999999</v>
-      </c>
-      <c r="F80" t="n">
-        <v>100.06519133</v>
-      </c>
-      <c r="G80" t="n">
-        <v>100.30795521</v>
-      </c>
-      <c r="H80" t="n">
-        <v>100.0421146</v>
-      </c>
-      <c r="I80" t="n">
-        <v>100.74275597</v>
-      </c>
-      <c r="J80" t="n">
-        <v>99.63126626</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>2013-12</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>100.22824442</v>
-      </c>
-      <c r="C81" t="n">
-        <v>100.29454067</v>
-      </c>
-      <c r="D81" t="n">
-        <v>99.99870509</v>
-      </c>
-      <c r="E81" t="n">
-        <v>99.86169934999999</v>
-      </c>
-      <c r="F81" t="n">
-        <v>100.13807197</v>
-      </c>
-      <c r="G81" t="n">
-        <v>100.28886712</v>
-      </c>
-      <c r="H81" t="n">
-        <v>99.97701863</v>
-      </c>
-      <c r="I81" t="n">
-        <v>100.44987744</v>
-      </c>
-      <c r="J81" t="n">
-        <v>100.55581083</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>2014-01</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>100.28537701</v>
-      </c>
-      <c r="C82" t="n">
-        <v>100.88676972</v>
-      </c>
-      <c r="D82" t="n">
-        <v>100.42188085</v>
-      </c>
-      <c r="E82" t="n">
-        <v>100.40168075</v>
-      </c>
-      <c r="F82" t="n">
-        <v>100.22194686</v>
-      </c>
-      <c r="G82" t="n">
-        <v>100.28520538</v>
-      </c>
-      <c r="H82" t="n">
-        <v>99.84293277</v>
-      </c>
-      <c r="I82" t="n">
-        <v>99.88810597</v>
-      </c>
-      <c r="J82" t="n">
-        <v>102.12994925</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>2014-02</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>100.1790547</v>
-      </c>
-      <c r="C83" t="n">
-        <v>100.45699812</v>
-      </c>
-      <c r="D83" t="n">
-        <v>100.13024945</v>
-      </c>
-      <c r="E83" t="n">
-        <v>99.97374026999999</v>
-      </c>
-      <c r="F83" t="n">
-        <v>100.09812157</v>
-      </c>
-      <c r="G83" t="n">
-        <v>100.21985809</v>
-      </c>
-      <c r="H83" t="n">
-        <v>99.93750015000001</v>
-      </c>
-      <c r="I83" t="n">
-        <v>99.43696656</v>
-      </c>
-      <c r="J83" t="n">
-        <v>101.24472937</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>2014-03</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>99.71995953</v>
-      </c>
-      <c r="C84" t="n">
-        <v>99.42094407</v>
-      </c>
-      <c r="D84" t="n">
-        <v>100.01005906</v>
-      </c>
-      <c r="E84" t="n">
-        <v>99.87365246</v>
-      </c>
-      <c r="F84" t="n">
-        <v>99.99588448999999</v>
-      </c>
-      <c r="G84" t="n">
-        <v>100.2495732</v>
-      </c>
-      <c r="H84" t="n">
-        <v>100.05829303</v>
-      </c>
-      <c r="I84" t="n">
-        <v>100.36326079</v>
-      </c>
-      <c r="J84" t="n">
-        <v>98.22689076</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>2014-04</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>99.94854599</v>
-      </c>
-      <c r="C85" t="n">
-        <v>99.63072542</v>
-      </c>
-      <c r="D85" t="n">
-        <v>100.04132282</v>
-      </c>
-      <c r="E85" t="n">
-        <v>100.08314465</v>
-      </c>
-      <c r="F85" t="n">
-        <v>100.16038909</v>
-      </c>
-      <c r="G85" t="n">
-        <v>100.11753644</v>
-      </c>
-      <c r="H85" t="n">
-        <v>100.02272678</v>
-      </c>
-      <c r="I85" t="n">
-        <v>100.59960634</v>
-      </c>
-      <c r="J85" t="n">
-        <v>98.67502591</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>2014-05</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>100.17306176</v>
-      </c>
-      <c r="C86" t="n">
-        <v>100.17764128</v>
-      </c>
-      <c r="D86" t="n">
-        <v>100.05951353</v>
-      </c>
-      <c r="E86" t="n">
-        <v>99.95594323</v>
-      </c>
-      <c r="F86" t="n">
-        <v>100.08358046</v>
-      </c>
-      <c r="G86" t="n">
-        <v>99.9934803</v>
-      </c>
-      <c r="H86" t="n">
-        <v>99.91774617</v>
-      </c>
-      <c r="I86" t="n">
-        <v>100.33276721</v>
-      </c>
-      <c r="J86" t="n">
-        <v>100.3910404</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>2014-06</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>100.10901996</v>
-      </c>
-      <c r="C87" t="n">
-        <v>99.90609502</v>
-      </c>
-      <c r="D87" t="n">
-        <v>99.99894506</v>
-      </c>
-      <c r="E87" t="n">
-        <v>100.04432905</v>
-      </c>
-      <c r="F87" t="n">
-        <v>100.0614559</v>
-      </c>
-      <c r="G87" t="n">
-        <v>99.87814691</v>
-      </c>
-      <c r="H87" t="n">
-        <v>99.95421552000001</v>
-      </c>
-      <c r="I87" t="n">
-        <v>99.97164490999999</v>
-      </c>
-      <c r="J87" t="n">
-        <v>99.75035407</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>2014-07</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>100.1629089</v>
-      </c>
-      <c r="C88" t="n">
-        <v>100.04564472</v>
-      </c>
-      <c r="D88" t="n">
-        <v>100.08639293</v>
-      </c>
-      <c r="E88" t="n">
-        <v>100.27727777</v>
-      </c>
-      <c r="F88" t="n">
-        <v>100.07621121</v>
-      </c>
-      <c r="G88" t="n">
-        <v>100.04238886</v>
-      </c>
-      <c r="H88" t="n">
-        <v>99.99681</v>
-      </c>
-      <c r="I88" t="n">
-        <v>99.60709022</v>
-      </c>
-      <c r="J88" t="n">
-        <v>100.03413442</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>2014-08</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>99.68380449999999</v>
-      </c>
-      <c r="C89" t="n">
-        <v>100.3009732</v>
-      </c>
-      <c r="D89" t="n">
-        <v>100.23387561</v>
-      </c>
-      <c r="E89" t="n">
-        <v>100.00970904</v>
-      </c>
-      <c r="F89" t="n">
-        <v>99.98803656</v>
-      </c>
-      <c r="G89" t="n">
-        <v>99.97589856</v>
-      </c>
-      <c r="H89" t="n">
-        <v>100.01339345</v>
-      </c>
-      <c r="I89" t="n">
-        <v>99.555909</v>
-      </c>
-      <c r="J89" t="n">
-        <v>101.02771236</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>2014-09</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>99.74255547</v>
-      </c>
-      <c r="C90" t="n">
-        <v>100.36334649</v>
-      </c>
-      <c r="D90" t="n">
-        <v>100.06136436</v>
-      </c>
-      <c r="E90" t="n">
-        <v>100.49449906</v>
-      </c>
-      <c r="F90" t="n">
-        <v>100.10187693</v>
-      </c>
-      <c r="G90" t="n">
-        <v>99.98061905</v>
-      </c>
-      <c r="H90" t="n">
-        <v>99.96506230999999</v>
-      </c>
-      <c r="I90" t="n">
-        <v>100.55578485</v>
-      </c>
-      <c r="J90" t="n">
-        <v>100.84056147</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>2014-10</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>99.6361</v>
-      </c>
-      <c r="C91" t="n">
-        <v>99.96759414</v>
-      </c>
-      <c r="D91" t="n">
-        <v>100.09918575</v>
-      </c>
-      <c r="E91" t="n">
-        <v>100.17047595</v>
-      </c>
-      <c r="F91" t="n">
-        <v>100.10877469</v>
-      </c>
-      <c r="G91" t="n">
-        <v>100.0810939</v>
-      </c>
-      <c r="H91" t="n">
-        <v>100.06792056</v>
-      </c>
-      <c r="I91" t="n">
-        <v>100.95548764</v>
-      </c>
-      <c r="J91" t="n">
-        <v>99.64620733</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>2014-11</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>99.34612951</v>
-      </c>
-      <c r="C92" t="n">
-        <v>99.82104671</v>
-      </c>
-      <c r="D92" t="n">
-        <v>100.20061408</v>
-      </c>
-      <c r="E92" t="n">
-        <v>99.72887188999999</v>
-      </c>
-      <c r="F92" t="n">
-        <v>100.16984581</v>
-      </c>
-      <c r="G92" t="n">
-        <v>99.95171578999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>99.88685814999999</v>
-      </c>
-      <c r="I92" t="n">
-        <v>100.76340665</v>
-      </c>
-      <c r="J92" t="n">
-        <v>99.53329499</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>2014-12</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>99.66791168</v>
-      </c>
-      <c r="C93" t="n">
-        <v>100.34227282</v>
-      </c>
-      <c r="D93" t="n">
-        <v>100.26404066</v>
-      </c>
-      <c r="E93" t="n">
-        <v>99.8852404</v>
-      </c>
-      <c r="F93" t="n">
-        <v>100.16241731</v>
-      </c>
-      <c r="G93" t="n">
-        <v>99.93676721</v>
-      </c>
-      <c r="H93" t="n">
-        <v>99.91541787</v>
-      </c>
-      <c r="I93" t="n">
-        <v>100.25893657</v>
-      </c>
-      <c r="J93" t="n">
-        <v>101.01785004</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>2015-01</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>99.30147694</v>
-      </c>
-      <c r="C94" t="n">
-        <v>100.21724374</v>
-      </c>
-      <c r="D94" t="n">
-        <v>100.56459207</v>
-      </c>
-      <c r="E94" t="n">
-        <v>100.25521384</v>
-      </c>
-      <c r="F94" t="n">
-        <v>100.14668188</v>
-      </c>
-      <c r="G94" t="n">
-        <v>100.04007683</v>
-      </c>
-      <c r="H94" t="n">
-        <v>99.96087632</v>
-      </c>
-      <c r="I94" t="n">
-        <v>100.02500183</v>
-      </c>
-      <c r="J94" t="n">
-        <v>100.55401686</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>2015-02</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>100.43729249</v>
-      </c>
-      <c r="C95" t="n">
-        <v>101.02757376</v>
-      </c>
-      <c r="D95" t="n">
-        <v>100.63906226</v>
-      </c>
-      <c r="E95" t="n">
-        <v>100.53602573</v>
-      </c>
-      <c r="F95" t="n">
-        <v>100.29847983</v>
-      </c>
-      <c r="G95" t="n">
-        <v>100.02915702</v>
-      </c>
-      <c r="H95" t="n">
-        <v>99.82809396</v>
-      </c>
-      <c r="I95" t="n">
-        <v>99.43362691999999</v>
-      </c>
-      <c r="J95" t="n">
-        <v>102.6037959</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>2015-03</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>100.06800475</v>
-      </c>
-      <c r="C96" t="n">
-        <v>99.43966983</v>
-      </c>
-      <c r="D96" t="n">
-        <v>99.69778076999999</v>
-      </c>
-      <c r="E96" t="n">
-        <v>99.80281461</v>
-      </c>
-      <c r="F96" t="n">
-        <v>99.83485829</v>
-      </c>
-      <c r="G96" t="n">
-        <v>99.9668286</v>
-      </c>
-      <c r="H96" t="n">
-        <v>100.0011197</v>
-      </c>
-      <c r="I96" t="n">
-        <v>100.27976995</v>
-      </c>
-      <c r="J96" t="n">
-        <v>98.50345495000001</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>2015-04</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>99.85415273</v>
-      </c>
-      <c r="C97" t="n">
-        <v>99.73275185</v>
-      </c>
-      <c r="D97" t="n">
-        <v>100.19850421</v>
-      </c>
-      <c r="E97" t="n">
-        <v>100.20425436</v>
-      </c>
-      <c r="F97" t="n">
-        <v>100.03549923</v>
-      </c>
-      <c r="G97" t="n">
-        <v>99.8927922</v>
-      </c>
-      <c r="H97" t="n">
-        <v>99.98474324999999</v>
-      </c>
-      <c r="I97" t="n">
-        <v>100.51358194</v>
-      </c>
-      <c r="J97" t="n">
-        <v>99.09639004</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>2015-05</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>100.49761549</v>
-      </c>
-      <c r="C98" t="n">
-        <v>99.87975754</v>
-      </c>
-      <c r="D98" t="n">
-        <v>100.08964735</v>
-      </c>
-      <c r="E98" t="n">
-        <v>100.03985967</v>
-      </c>
-      <c r="F98" t="n">
-        <v>100.03068522</v>
-      </c>
-      <c r="G98" t="n">
-        <v>99.92468400999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>102.21435013</v>
-      </c>
-      <c r="I98" t="n">
-        <v>100.40695028</v>
-      </c>
-      <c r="J98" t="n">
-        <v>99.17405742</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>2015-06</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>99.88642373</v>
-      </c>
-      <c r="C99" t="n">
-        <v>100.08136045</v>
-      </c>
-      <c r="D99" t="n">
-        <v>100.23230185</v>
-      </c>
-      <c r="E99" t="n">
-        <v>100.07095385</v>
-      </c>
-      <c r="F99" t="n">
-        <v>100.0188184</v>
-      </c>
-      <c r="G99" t="n">
-        <v>99.88067112</v>
-      </c>
-      <c r="H99" t="n">
-        <v>102.01301083</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100.18503474</v>
-      </c>
-      <c r="J99" t="n">
-        <v>99.97489976</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>2015-07</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>99.84649208</v>
-      </c>
-      <c r="C100" t="n">
-        <v>100.30229738</v>
-      </c>
-      <c r="D100" t="n">
-        <v>100.07555501</v>
-      </c>
-      <c r="E100" t="n">
-        <v>100.34121562</v>
-      </c>
-      <c r="F100" t="n">
-        <v>99.98661011</v>
-      </c>
-      <c r="G100" t="n">
-        <v>99.87812665</v>
-      </c>
-      <c r="H100" t="n">
-        <v>100.07072802</v>
-      </c>
-      <c r="I100" t="n">
-        <v>99.60411338999999</v>
-      </c>
-      <c r="J100" t="n">
-        <v>100.95455817</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>2015-08</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>99.38486761</v>
-      </c>
-      <c r="C101" t="n">
-        <v>100.59152553</v>
-      </c>
-      <c r="D101" t="n">
-        <v>100.14356421</v>
-      </c>
-      <c r="E101" t="n">
-        <v>100.03771459</v>
-      </c>
-      <c r="F101" t="n">
-        <v>99.99039126</v>
-      </c>
-      <c r="G101" t="n">
-        <v>99.91292702</v>
-      </c>
-      <c r="H101" t="n">
-        <v>100.05552173</v>
-      </c>
-      <c r="I101" t="n">
-        <v>99.52234392</v>
-      </c>
-      <c r="J101" t="n">
-        <v>101.9894862</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>2015-09</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>99.64586810999999</v>
-      </c>
-      <c r="C102" t="n">
-        <v>100.0505089</v>
-      </c>
-      <c r="D102" t="n">
-        <v>100.25410035</v>
-      </c>
-      <c r="E102" t="n">
-        <v>100.55654318</v>
-      </c>
-      <c r="F102" t="n">
-        <v>100.03537778</v>
-      </c>
-      <c r="G102" t="n">
-        <v>99.99691188</v>
-      </c>
-      <c r="H102" t="n">
-        <v>99.99108483000001</v>
-      </c>
-      <c r="I102" t="n">
-        <v>100.50766878</v>
-      </c>
-      <c r="J102" t="n">
         <v>99.89174558000001</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>2015-10</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>100.00549055</v>
-      </c>
-      <c r="C103" t="n">
-        <v>99.68763339</v>
-      </c>
-      <c r="D103" t="n">
-        <v>100.20326482</v>
-      </c>
-      <c r="E103" t="n">
-        <v>99.96085619</v>
-      </c>
-      <c r="F103" t="n">
-        <v>100.03494866</v>
-      </c>
-      <c r="G103" t="n">
-        <v>99.95925068</v>
-      </c>
-      <c r="H103" t="n">
-        <v>100.01572221</v>
-      </c>
-      <c r="I103" t="n">
-        <v>100.60653266</v>
-      </c>
-      <c r="J103" t="n">
-        <v>98.93892707000001</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>2015-11</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>99.76880020999999</v>
-      </c>
-      <c r="C104" t="n">
-        <v>99.95922159</v>
-      </c>
-      <c r="D104" t="n">
-        <v>100.50438308</v>
-      </c>
-      <c r="E104" t="n">
-        <v>99.88042828</v>
-      </c>
-      <c r="F104" t="n">
-        <v>100.01741999</v>
-      </c>
-      <c r="G104" t="n">
-        <v>100.01645333</v>
-      </c>
-      <c r="H104" t="n">
-        <v>100.02531179</v>
-      </c>
-      <c r="I104" t="n">
-        <v>100.59892885</v>
-      </c>
-      <c r="J104" t="n">
-        <v>99.69291463</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>2015-12</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>99.77328376</v>
-      </c>
-      <c r="C105" t="n">
-        <v>100.50271585</v>
-      </c>
-      <c r="D105" t="n">
-        <v>100.23126695</v>
-      </c>
-      <c r="E105" t="n">
-        <v>99.92818516</v>
-      </c>
-      <c r="F105" t="n">
-        <v>100.03395727</v>
-      </c>
-      <c r="G105" t="n">
-        <v>100.00462358</v>
-      </c>
-      <c r="H105" t="n">
-        <v>99.96573284</v>
-      </c>
-      <c r="I105" t="n">
-        <v>100.27876193</v>
-      </c>
-      <c r="J105" t="n">
-        <v>101.40599826</v>
       </c>
     </row>
   </sheetData>
